--- a/2023/china_super-league_2023.xlsx
+++ b/2023/china_super-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V220"/>
+  <dimension ref="A1:V221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20697,6 +20697,98 @@
         </is>
       </c>
     </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45219.56597222222</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Shanghai Port</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>13/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>13/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>13/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>20/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-beijing-guoan/vagW233q/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/china_super-league_2023.xlsx
+++ b/2023/china_super-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V221"/>
+  <dimension ref="A1:V222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.44</v>
+        <v>2.83</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:33</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:33</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.55</v>
+        <v>2.4</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:33</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-meizhou-hakka/ppSxdtY8/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-zhejiang-professional/2LMse0mF/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.83</v>
+        <v>2.4</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,48 +10348,48 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.96</v>
+        <v>2.03</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
+          <t>02/07/2023 13:30</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
           <t>02/07/2023 13:33</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O108" t="inlineStr">
+      <c r="R108" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S108" t="inlineStr">
         <is>
           <t>28/06/2023 13:42</t>
         </is>
       </c>
-      <c r="P108" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q108" t="inlineStr">
+      <c r="T108" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U108" t="inlineStr">
         <is>
           <t>02/07/2023 13:33</t>
         </is>
       </c>
-      <c r="R108" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>02/07/2023 13:33</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-zhejiang-professional/2LMse0mF/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-qingdao-hainiu/tCLofK2L/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:30</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.21</v>
+        <v>3.13</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:33</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.92</v>
+        <v>3.14</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.92</v>
+        <v>4.55</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:33</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-qingdao-hainiu/tCLofK2L/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-meizhou-hakka/ppSxdtY8/</t>
         </is>
       </c>
     </row>
@@ -20786,6 +20786,98 @@
       <c r="V221" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-beijing-guoan/vagW233q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45220.39583333334</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Henan Songshan Longmen</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>6</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Cangzhou</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>14/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:26</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>14/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:27</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>14/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>21/10/2023 09:27</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-cangzhou-mighty-lions/Ikhz2NIk/</t>
         </is>
       </c>
     </row>

--- a/2023/china_super-league_2023.xlsx
+++ b/2023/china_super-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V222"/>
+  <dimension ref="A1:V223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20881,6 +20881,98 @@
         </is>
       </c>
     </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45220.56597222222</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:42</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:34</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-shanghai-shenhua/0Esu1sYe/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/china_super-league_2023.xlsx
+++ b/2023/china_super-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V223"/>
+  <dimension ref="A1:V224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Qingdao Hainiu</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Shandong Taishan</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.88</v>
+        <v>5.38</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.16</v>
+        <v>7.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:30</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:27</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.35</v>
+        <v>1.51</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:30</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shandong-taishan/4O7XHmWo/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-qingdao-hainiu/YcCyH7oh/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.38</v>
+        <v>3.88</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7.05</v>
+        <v>3.16</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:30</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:27</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.51</v>
+        <v>2.35</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:30</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-qingdao-hainiu/YcCyH7oh/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shandong-taishan/4O7XHmWo/</t>
         </is>
       </c>
     </row>
@@ -2413,22 +2413,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.37</v>
+        <v>1.86</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -2436,15 +2436,15 @@
         </is>
       </c>
       <c r="L22" t="n">
-        <v>5.67</v>
+        <v>2.07</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>26/04/2023 13:34</t>
+          <t>26/04/2023 13:33</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2452,15 +2452,15 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>26/04/2023 13:34</t>
+          <t>26/04/2023 13:26</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>1.87</v>
+        <v>4.25</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -2468,16 +2468,16 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.62</v>
+        <v>3.97</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>26/04/2023 13:34</t>
+          <t>26/04/2023 13:33</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-chengdu-rongcheng/2auTP2UM/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-changchun-yatai/KzjOQrFG/</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G23" t="n">
@@ -2513,14 +2513,14 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.86</v>
+        <v>3.13</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,48 +2528,48 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>26/04/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>24/04/2023 11:31</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
           <t>26/04/2023 13:33</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="R23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S23" t="inlineStr">
         <is>
           <t>24/04/2023 11:31</t>
         </is>
       </c>
-      <c r="P23" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>26/04/2023 13:26</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>24/04/2023 11:31</t>
-        </is>
-      </c>
       <c r="T23" t="n">
-        <v>3.97</v>
+        <v>2.9</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/04/2023 13:33</t>
+          <t>26/04/2023 13:34</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-changchun-yatai/KzjOQrFG/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-henan-songshan-longmen/WEVbKthp/</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G24" t="n">
@@ -2605,14 +2605,14 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.57</v>
+        <v>4.37</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>3.51</v>
+        <v>5.67</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>26/04/2023 13:32</t>
+          <t>26/04/2023 13:34</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.51</v>
+        <v>3.42</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.65</v>
+        <v>3.92</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="R24" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/04/2023 13:32</t>
+          <t>26/04/2023 13:34</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-tianjin-jinmen-tiger/EZrXOMqT/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-chengdu-rongcheng/2auTP2UM/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.13</v>
+        <v>3.57</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,48 +2712,48 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.75</v>
+        <v>3.51</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
+          <t>26/04/2023 13:32</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>24/04/2023 11:31</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
           <t>26/04/2023 13:34</t>
         </is>
       </c>
-      <c r="N25" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="R25" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S25" t="inlineStr">
         <is>
           <t>24/04/2023 11:31</t>
         </is>
       </c>
-      <c r="P25" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>26/04/2023 13:33</t>
-        </is>
-      </c>
-      <c r="R25" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>24/04/2023 11:31</t>
-        </is>
-      </c>
       <c r="T25" t="n">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>26/04/2023 13:34</t>
+          <t>26/04/2023 13:32</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-henan-songshan-longmen/WEVbKthp/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-tianjin-jinmen-tiger/EZrXOMqT/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,14 +3249,14 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1.86</v>
+        <v>2.31</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.71</v>
+        <v>2.39</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>30/04/2023 13:32</t>
+          <t>30/04/2023 13:04</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.43</v>
+        <v>3.25</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.53</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>30/04/2023 13:32</t>
+          <t>30/04/2023 13:04</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.07</v>
+        <v>3.03</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.48</v>
+        <v>3.41</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>30/04/2023 13:32</t>
+          <t>30/04/2023 13:04</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-shanghai-shenhua/G252v2qG/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-nantong-zhiyun/fg46wMbM/</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G32" t="n">
@@ -3341,14 +3341,14 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.31</v>
+        <v>1.86</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.39</v>
+        <v>1.71</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>30/04/2023 13:04</t>
+          <t>30/04/2023 13:32</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.25</v>
+        <v>3.43</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>3.53</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>30/04/2023 13:04</t>
+          <t>30/04/2023 13:32</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.03</v>
+        <v>4.07</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.41</v>
+        <v>5.48</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>30/04/2023 13:04</t>
+          <t>30/04/2023 13:32</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-nantong-zhiyun/fg46wMbM/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-shanghai-shenhua/G252v2qG/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.06</v>
+        <v>1.44</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,48 +3540,48 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>4.95</v>
+        <v>1.22</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
+          <t>05/05/2023 13:32</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>01/05/2023 14:01</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
           <t>05/05/2023 13:34</t>
         </is>
       </c>
-      <c r="N34" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="R34" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="S34" t="inlineStr">
         <is>
           <t>01/05/2023 14:01</t>
         </is>
       </c>
-      <c r="P34" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="Q34" t="inlineStr">
+      <c r="T34" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="U34" t="inlineStr">
         <is>
           <t>05/05/2023 13:34</t>
         </is>
       </c>
-      <c r="R34" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>01/05/2023 14:01</t>
-        </is>
-      </c>
-      <c r="T34" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>05/05/2023 13:34</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-beijing-guoan/jw5yYaMq/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-zhejiang-professional/08nSfNTd/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>1.22</v>
+        <v>1.93</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>05/05/2023 13:32</t>
+          <t>05/05/2023 13:34</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,7 +3740,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>6.25</v>
+        <v>3.22</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
@@ -3748,7 +3748,7 @@
         </is>
       </c>
       <c r="R36" t="n">
-        <v>6.44</v>
+        <v>6.08</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>12.96</v>
+        <v>4.61</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-zhejiang-professional/08nSfNTd/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-dalian-professional/Y1ftXJyj/</t>
         </is>
       </c>
     </row>
@@ -3793,22 +3793,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Dalian Pro</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>1.53</v>
+        <v>5.06</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="L37" t="n">
-        <v>1.93</v>
+        <v>4.95</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.83</v>
+        <v>3.47</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>3.22</v>
+        <v>3.47</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>6.08</v>
+        <v>1.69</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -3848,7 +3848,7 @@
         </is>
       </c>
       <c r="T37" t="n">
-        <v>4.61</v>
+        <v>1.79</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-dalian-professional/Y1ftXJyj/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-beijing-guoan/jw5yYaMq/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1.38</v>
+        <v>3.06</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.56</v>
+        <v>2.78</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>06/05/2023 13:18</t>
+          <t>06/05/2023 13:33</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.48</v>
+        <v>3.05</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.13</v>
+        <v>2.91</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>06/05/2023 13:28</t>
+          <t>06/05/2023 13:33</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>8.859999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>6.04</v>
+        <v>2.94</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>06/05/2023 13:25</t>
+          <t>06/05/2023 13:33</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-qingdao-hainiu/dztyg1b9/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-changchun-yatai/SM28zgrr/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>3.06</v>
+        <v>1.38</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.78</v>
+        <v>1.56</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 13:33</t>
+          <t>06/05/2023 13:18</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.05</v>
+        <v>4.48</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2.91</v>
+        <v>4.13</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 13:33</t>
+          <t>06/05/2023 13:28</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>2.5</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>2.94</v>
+        <v>6.04</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 13:33</t>
+          <t>06/05/2023 13:25</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-changchun-yatai/SM28zgrr/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-qingdao-hainiu/dztyg1b9/</t>
         </is>
       </c>
     </row>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -4261,14 +4261,14 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>4.8</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,48 +4276,48 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>9.550000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
+          <t>09/05/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>08/05/2023 07:01</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>09/05/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>08/05/2023 07:01</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
           <t>09/05/2023 13:34</t>
         </is>
       </c>
-      <c r="N42" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>08/05/2023 07:01</t>
-        </is>
-      </c>
-      <c r="P42" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>09/05/2023 13:34</t>
-        </is>
-      </c>
-      <c r="R42" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>08/05/2023 07:01</t>
-        </is>
-      </c>
-      <c r="T42" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>09/05/2023 13:32</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-shanghai-shenhua/r1JRi9K1/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-cangzhou-mighty-lions/MoVIgVkk/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>6.82</v>
+        <v>4.8</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>5.07</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>09/05/2023 13:28</t>
+          <t>09/05/2023 13:34</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.61</v>
+        <v>4.08</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.92</v>
+        <v>4.57</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>09/05/2023 13:29</t>
+          <t>09/05/2023 13:34</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>09/05/2023 13:28</t>
+          <t>09/05/2023 13:32</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-wuhan-three-towns/0xUMhk5e/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-shanghai-shenhua/r1JRi9K1/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.4</v>
+        <v>6.82</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.22</v>
+        <v>5.07</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>09/05/2023 13:27</t>
+          <t>09/05/2023 13:28</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.04</v>
+        <v>4.61</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.28</v>
+        <v>3.92</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>09/05/2023 13:27</t>
+          <t>09/05/2023 13:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.08</v>
+        <v>1.43</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.46</v>
+        <v>1.68</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>09/05/2023 13:34</t>
+          <t>09/05/2023 13:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-cangzhou-mighty-lions/MoVIgVkk/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-wuhan-three-towns/0xUMhk5e/</t>
         </is>
       </c>
     </row>
@@ -4529,22 +4529,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.02</v>
+        <v>1.35</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,39 +4552,39 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.76</v>
+        <v>1.43</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>10/05/2023 13:27</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>08/05/2023 07:01</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>10/05/2023 13:32</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="R45" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="S45" t="inlineStr">
         <is>
           <t>08/05/2023 07:01</t>
         </is>
       </c>
-      <c r="P45" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>10/05/2023 13:30</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>08/05/2023 07:01</t>
-        </is>
-      </c>
       <c r="T45" t="n">
-        <v>4.96</v>
+        <v>7.06</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-tianjin-jinmen-tiger/A7BDFCC8/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-qingdao-hainiu/80QICAdR/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Zhejiang Professional</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Meizhou Hakka</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
       <c r="J46" t="n">
-        <v>1.76</v>
+        <v>2.99</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.91</v>
+        <v>3.06</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>10/05/2023 13:29</t>
+          <t>10/05/2023 13:30</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.53</v>
+        <v>3.17</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,15 +4660,15 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.39</v>
+        <v>3.05</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>10/05/2023 13:29</t>
+          <t>10/05/2023 13:30</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>4.81</v>
+        <v>2.47</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.39</v>
+        <v>2.57</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>10/05/2023 13:29</t>
+          <t>10/05/2023 13:30</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-meizhou-hakka/lbAHEWRE/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-zhejiang-professional/d4NVjTZ7/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>2.99</v>
+        <v>2.74</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>3.06</v>
+        <v>2.47</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>10/05/2023 13:30</t>
+          <t>10/05/2023 13:31</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,15 +4752,15 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.05</v>
+        <v>3.24</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>10/05/2023 13:30</t>
+          <t>10/05/2023 13:32</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>2.47</v>
+        <v>2.74</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,16 +4768,16 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>2.57</v>
+        <v>3.03</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>10/05/2023 13:30</t>
+          <t>10/05/2023 13:32</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-zhejiang-professional/d4NVjTZ7/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-shandong-taishan/U9REDjsL/</t>
         </is>
       </c>
     </row>
@@ -4805,7 +4805,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G48" t="n">
@@ -4813,14 +4813,14 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J48" t="n">
-        <v>1.35</v>
+        <v>1.76</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -4828,15 +4828,15 @@
         </is>
       </c>
       <c r="L48" t="n">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>10/05/2023 13:27</t>
+          <t>10/05/2023 13:29</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>4.97</v>
+        <v>3.53</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4844,15 +4844,15 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>4.77</v>
+        <v>3.39</v>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>10/05/2023 13:32</t>
+          <t>10/05/2023 13:29</t>
         </is>
       </c>
       <c r="R48" t="n">
-        <v>8.539999999999999</v>
+        <v>4.81</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -4860,16 +4860,16 @@
         </is>
       </c>
       <c r="T48" t="n">
-        <v>7.06</v>
+        <v>4.39</v>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>10/05/2023 13:32</t>
+          <t>10/05/2023 13:29</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-qingdao-hainiu/80QICAdR/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-meizhou-hakka/lbAHEWRE/</t>
         </is>
       </c>
     </row>
@@ -4897,22 +4897,22 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.74</v>
+        <v>2.02</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -4920,15 +4920,15 @@
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.47</v>
+        <v>1.76</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>10/05/2023 13:31</t>
+          <t>10/05/2023 13:32</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.09</v>
+        <v>3.35</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4936,32 +4936,32 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.24</v>
+        <v>3.62</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>10/05/2023 13:30</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>08/05/2023 07:01</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>10/05/2023 13:32</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>08/05/2023 07:01</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>10/05/2023 13:32</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-shandong-taishan/U9REDjsL/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-tianjin-jinmen-tiger/A7BDFCC8/</t>
         </is>
       </c>
     </row>
@@ -5357,7 +5357,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G54" t="n">
@@ -5365,14 +5365,14 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>4.46</v>
+        <v>5.26</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -5380,15 +5380,15 @@
         </is>
       </c>
       <c r="L54" t="n">
-        <v>4.8</v>
+        <v>6.41</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>14/05/2023 13:34</t>
+          <t>14/05/2023 13:33</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
@@ -5396,15 +5396,15 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.96</v>
+        <v>4.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>14/05/2023 13:34</t>
+          <t>14/05/2023 13:33</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="T54" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>14/05/2023 13:34</t>
+          <t>14/05/2023 13:25</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shanghai-port/CdZoCbND/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-shandong-taishan/UX914n47/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,63 +5457,63 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>1.78</v>
+        <v>4.46</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>14/05/2023 08:17</t>
+          <t>11/05/2023 14:31</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>1.76</v>
+        <v>4.8</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>14/05/2023 12:27</t>
+          <t>14/05/2023 13:34</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>14/05/2023 08:17</t>
+          <t>11/05/2023 14:31</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>14/05/2023 13:30</t>
+          <t>14/05/2023 13:34</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>4.58</v>
+        <v>1.74</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>14/05/2023 08:17</t>
+          <t>11/05/2023 14:31</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>4.86</v>
+        <v>1.7</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>14/05/2023 13:30</t>
+          <t>14/05/2023 13:34</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-henan-songshan-longmen/8O8536JD/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shanghai-port/CdZoCbND/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>5.26</v>
+        <v>1.78</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>11/05/2023 14:31</t>
+          <t>14/05/2023 08:17</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>6.41</v>
+        <v>1.76</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 13:33</t>
+          <t>14/05/2023 12:27</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.84</v>
+        <v>3.37</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>11/05/2023 14:31</t>
+          <t>14/05/2023 08:17</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.43</v>
+        <v>3.62</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 13:33</t>
+          <t>14/05/2023 13:30</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.59</v>
+        <v>4.58</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>11/05/2023 14:31</t>
+          <t>14/05/2023 08:17</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.5</v>
+        <v>4.86</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 13:25</t>
+          <t>14/05/2023 13:30</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-shandong-taishan/UX914n47/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-henan-songshan-longmen/8O8536JD/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I59" t="n">
         <v>1</v>
       </c>
       <c r="J59" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>19/05/2023 13:26</t>
+          <t>19/05/2023 13:34</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>19/05/2023 13:26</t>
+          <t>19/05/2023 13:34</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.87</v>
+        <v>4.85</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>19/05/2023 13:31</t>
+          <t>19/05/2023 13:34</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-beijing-guoan/AiHY2fp0/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-shenzhen-fc/K2OL5d0s/</t>
         </is>
       </c>
     </row>
@@ -5909,22 +5909,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.38</v>
+        <v>2.07</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.94</v>
+        <v>2.15</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>19/05/2023 13:34</t>
+          <t>19/05/2023 13:26</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.23</v>
+        <v>3.17</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.17</v>
+        <v>3.11</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>19/05/2023 13:33</t>
+          <t>19/05/2023 13:26</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.07</v>
+        <v>3.66</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>2.57</v>
+        <v>3.87</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>19/05/2023 13:34</t>
+          <t>19/05/2023 13:31</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-zhejiang-professional/GUHU3zVg/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-beijing-guoan/AiHY2fp0/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,14 +6009,14 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.27</v>
+        <v>2.94</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>19/05/2023 13:28</t>
+          <t>19/05/2023 13:34</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.27</v>
+        <v>3.23</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.33</v>
+        <v>3.17</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>19/05/2023 13:27</t>
+          <t>19/05/2023 13:33</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.38</v>
+        <v>3.07</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.29</v>
+        <v>2.57</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>19/05/2023 13:28</t>
+          <t>19/05/2023 13:34</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-changchun-yatai/xvJQ4GFm/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-zhejiang-professional/GUHU3zVg/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>2.09</v>
+        <v>2.9</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.81</v>
+        <v>2.27</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>19/05/2023 13:34</t>
+          <t>19/05/2023 13:28</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.46</v>
+        <v>3.33</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>19/05/2023 13:34</t>
+          <t>19/05/2023 13:27</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>3.53</v>
+        <v>2.38</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.85</v>
+        <v>3.29</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>19/05/2023 13:34</t>
+          <t>19/05/2023 13:28</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-shenzhen-fc/K2OL5d0s/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-changchun-yatai/xvJQ4GFm/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>3.76</v>
+        <v>5.11</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.13</v>
+        <v>6.31</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>20/05/2023 13:30</t>
+          <t>20/05/2023 13:32</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.41</v>
+        <v>4.02</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.68</v>
+        <v>4.42</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20/05/2023 13:30</t>
+          <t>20/05/2023 13:32</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.94</v>
+        <v>1.57</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20/05/2023 13:30</t>
+          <t>20/05/2023 13:26</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-shandong-taishan/pA9o0hUI/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-shanghai-port/6JAs1YEC/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Dalian Pro</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Shanghai Port</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>5.11</v>
+        <v>2.81</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,48 +6300,48 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>6.31</v>
+        <v>2.76</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
+          <t>20/05/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:01</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
           <t>20/05/2023 13:32</t>
         </is>
       </c>
-      <c r="N64" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="O64" t="inlineStr">
+      <c r="R64" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S64" t="inlineStr">
         <is>
           <t>17/05/2023 18:01</t>
         </is>
       </c>
-      <c r="P64" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>20/05/2023 13:32</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:01</t>
-        </is>
-      </c>
       <c r="T64" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 13:26</t>
+          <t>20/05/2023 13:34</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-shanghai-port/6JAs1YEC/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-dalian-professional/OfLx2Ea6/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>2.81</v>
+        <v>3.76</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.76</v>
+        <v>4.13</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 13:33</t>
+          <t>20/05/2023 13:30</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.11</v>
+        <v>3.41</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.09</v>
+        <v>3.68</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 13:32</t>
+          <t>20/05/2023 13:30</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.55</v>
+        <v>1.94</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.8</v>
+        <v>1.88</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 13:34</t>
+          <t>20/05/2023 13:30</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-dalian-professional/OfLx2Ea6/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-shandong-taishan/pA9o0hUI/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>21/05/2023 16:16</t>
+          <t>21/05/2023 16:17</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>1.15</v>
+        <v>2.89</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/05/2023 13:29</t>
+          <t>24/05/2023 13:25</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>6.57</v>
+        <v>3.16</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>21/05/2023 16:16</t>
+          <t>21/05/2023 16:17</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>7.86</v>
+        <v>3.27</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/05/2023 13:31</t>
+          <t>24/05/2023 13:25</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>15.6</v>
+        <v>2.71</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>21/05/2023 16:16</t>
+          <t>21/05/2023 16:17</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/05/2023 13:31</t>
+          <t>24/05/2023 13:25</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-henan-songshan-longmen/QspKEiqC/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-zhejiang-professional/jPi7Hgag/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 13:26</t>
+          <t>24/05/2023 13:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>6.66</v>
+        <v>6.57</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>7.46</v>
+        <v>7.86</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 13:30</t>
+          <t>24/05/2023 13:31</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>16.36</v>
+        <v>15.6</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>15.25</v>
+        <v>17</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 13:30</t>
+          <t>24/05/2023 13:31</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-shenzhen-fc/nioGFXT5/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-henan-songshan-longmen/QspKEiqC/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.6</v>
+        <v>1.18</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:17</t>
+          <t>21/05/2023 16:16</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.89</v>
+        <v>1.17</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 13:25</t>
+          <t>24/05/2023 13:26</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.16</v>
+        <v>6.66</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:17</t>
+          <t>21/05/2023 16:16</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.27</v>
+        <v>7.46</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24/05/2023 13:25</t>
+          <t>24/05/2023 13:30</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>2.71</v>
+        <v>16.36</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:17</t>
+          <t>21/05/2023 16:16</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.55</v>
+        <v>15.25</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 13:25</t>
+          <t>24/05/2023 13:30</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-zhejiang-professional/jPi7Hgag/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-shenzhen-fc/nioGFXT5/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>4.99</v>
+        <v>3.27</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.98</v>
+        <v>2.5</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>28/05/2023 11:29</t>
+          <t>28/05/2023 11:24</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.05</v>
+        <v>3.39</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>28/05/2023 11:29</t>
+          <t>28/05/2023 10:27</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.58</v>
+        <v>2.12</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.91</v>
+        <v>2.89</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>28/05/2023 11:29</t>
+          <t>28/05/2023 11:24</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shandong-taishan/YqRAyFjP/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-beijing-guoan/zgDxXYbt/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
-        <v>3.27</v>
+        <v>4.99</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.5</v>
+        <v>3.98</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>28/05/2023 11:24</t>
+          <t>28/05/2023 11:29</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.39</v>
+        <v>4.05</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>28/05/2023 10:27</t>
+          <t>28/05/2023 11:29</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.89</v>
+        <v>1.91</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>28/05/2023 11:24</t>
+          <t>28/05/2023 11:29</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-beijing-guoan/zgDxXYbt/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shandong-taishan/YqRAyFjP/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,63 +8677,63 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>1.56</v>
+        <v>3.57</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.74</v>
+        <v>4.16</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>6.45</v>
+        <v>2.18</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.24</v>
+        <v>2.01</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-tianjin-jinmen-tiger/QLWUSs4M/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-shenhua/8pMZR1JS/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>02/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>08/06/2023 13:25</t>
+          <t>08/06/2023 13:17</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>02/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>7.18</v>
+        <v>3.57</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>08/06/2023 13:34</t>
+          <t>08/06/2023 13:17</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.81</v>
+        <v>6.45</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>02/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>13.74</v>
+        <v>5.24</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>08/06/2023 13:34</t>
+          <t>08/06/2023 13:17</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-shenzhen-fc/nVXQTNlG/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-tianjin-jinmen-tiger/QLWUSs4M/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>3.57</v>
+        <v>1.47</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>02/06/2023 13:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>4.16</v>
+        <v>1.19</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
+          <t>08/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>02/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
           <t>08/06/2023 13:34</t>
         </is>
       </c>
-      <c r="N92" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>04/06/2023 11:42</t>
-        </is>
-      </c>
-      <c r="P92" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q92" t="inlineStr">
+      <c r="R92" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>02/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="U92" t="inlineStr">
         <is>
           <t>08/06/2023 13:34</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>04/06/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>08/06/2023 13:34</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-shenhua/8pMZR1JS/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-shenzhen-fc/nVXQTNlG/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>2.15</v>
+        <v>3.96</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>03/06/2023 13:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>2.34</v>
+        <v>4.15</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>09/06/2023 13:32</t>
+          <t>09/06/2023 13:13</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.59</v>
+        <v>3.5</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>03/06/2023 13:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.48</v>
+        <v>3.68</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>09/06/2023 13:08</t>
+          <t>09/06/2023 13:13</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>03/06/2023 13:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>3.04</v>
+        <v>1.87</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>09/06/2023 13:30</t>
+          <t>09/06/2023 13:13</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-shandong-taishan/I98eq3l3/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-beijing-guoan/21Q8Ladd/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.26</v>
+        <v>2.15</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.18</v>
+        <v>2.34</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/06/2023 13:29</t>
+          <t>09/06/2023 13:32</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>5.55</v>
+        <v>3.59</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>6.72</v>
+        <v>3.48</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>09/06/2023 13:29</t>
+          <t>09/06/2023 13:08</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>9.220000000000001</v>
+        <v>3.05</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>16.33</v>
+        <v>3.04</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>09/06/2023 13:33</t>
+          <t>09/06/2023 13:30</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-nantong-zhiyun/OAR4Musj/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-shandong-taishan/I98eq3l3/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J96" t="n">
-        <v>2.19</v>
+        <v>1.26</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.35</v>
+        <v>1.18</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/06/2023 13:30</t>
+          <t>09/06/2023 13:29</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.3</v>
+        <v>5.55</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.32</v>
+        <v>6.72</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/06/2023 13:30</t>
+          <t>09/06/2023 13:29</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.48</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.15</v>
+        <v>16.33</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/06/2023 13:30</t>
+          <t>09/06/2023 13:33</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-cangzhou-mighty-lions/vJ9ipqZd/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-nantong-zhiyun/OAR4Musj/</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9313,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G97" t="n">
@@ -9321,63 +9321,63 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>3.96</v>
+        <v>2.19</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>03/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.15</v>
+        <v>2.35</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>09/06/2023 13:13</t>
+          <t>09/06/2023 13:30</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>03/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.68</v>
+        <v>3.32</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>09/06/2023 13:13</t>
+          <t>09/06/2023 13:30</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.96</v>
+        <v>3.48</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>03/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.87</v>
+        <v>3.15</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>09/06/2023 13:13</t>
+          <t>09/06/2023 13:30</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-beijing-guoan/21Q8Ladd/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-cangzhou-mighty-lions/vJ9ipqZd/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>3</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Henan Songshan Longmen</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>1</v>
-      </c>
       <c r="J98" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>28/06/2023 13:34</t>
+          <t>28/06/2023 13:33</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.39</v>
+        <v>3.85</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,7 +9444,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.26</v>
+        <v>3.67</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.24</v>
+        <v>4.76</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.99</v>
+        <v>3.65</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/06/2023 13:34</t>
+          <t>28/06/2023 13:33</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-henan-songshan-longmen/QZB3ssJF/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-meizhou-hakka/IXnvyudq/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.92</v>
+        <v>1.31</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.31</v>
+        <v>5.49</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.36</v>
+        <v>5.58</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/06/2023 13:33</t>
+          <t>28/06/2023 13:34</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>4.16</v>
+        <v>7.51</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>4.42</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/06/2023 13:33</t>
+          <t>28/06/2023 13:34</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-qingdao-hainiu/8b18t1YL/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-dalian-professional/nk0CuLmS/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,14 +9597,14 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,7 +9612,7 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.85</v>
+        <v>3.31</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.67</v>
+        <v>3.36</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.76</v>
+        <v>4.16</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,7 +9644,7 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.65</v>
+        <v>4.42</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-meizhou-hakka/IXnvyudq/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-qingdao-hainiu/8b18t1YL/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,14 +9781,14 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.3</v>
+        <v>2.14</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,48 +9796,48 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.31</v>
+        <v>2.48</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
+          <t>28/06/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>21/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
           <t>28/06/2023 13:33</t>
         </is>
       </c>
-      <c r="N102" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="O102" t="inlineStr">
+      <c r="R102" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S102" t="inlineStr">
         <is>
           <t>21/06/2023 13:42</t>
         </is>
       </c>
-      <c r="P102" t="n">
-        <v>5.58</v>
-      </c>
-      <c r="Q102" t="inlineStr">
+      <c r="T102" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U102" t="inlineStr">
         <is>
           <t>28/06/2023 13:34</t>
         </is>
       </c>
-      <c r="R102" t="n">
-        <v>7.51</v>
-      </c>
-      <c r="S102" t="inlineStr">
-        <is>
-          <t>21/06/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T102" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="U102" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:34</t>
-        </is>
-      </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-dalian-professional/nk0CuLmS/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-henan-songshan-longmen/QZB3ssJF/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="n">
-        <v>2.83</v>
+        <v>2.44</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.96</v>
+        <v>1.98</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:33</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.46</v>
+        <v>3.11</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:33</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>2.6</v>
+        <v>3.14</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>2.4</v>
+        <v>4.55</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:33</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-zhejiang-professional/2LMse0mF/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-meizhou-hakka/ppSxdtY8/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>02/07/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>02/07/2023 13:33</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
         <v>2.4</v>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:42</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>02/07/2023 13:30</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
-        <v>3.21</v>
-      </c>
-      <c r="O108" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P108" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="Q108" t="inlineStr">
+      <c r="U108" t="inlineStr">
         <is>
           <t>02/07/2023 13:33</t>
         </is>
       </c>
-      <c r="R108" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>02/07/2023 13:33</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-qingdao-hainiu/tCLofK2L/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-zhejiang-professional/2LMse0mF/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J109" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:30</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.11</v>
+        <v>3.36</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:33</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.14</v>
+        <v>2.92</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>4.55</v>
+        <v>3.92</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:33</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-meizhou-hakka/ppSxdtY8/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-qingdao-hainiu/tCLofK2L/</t>
         </is>
       </c>
     </row>
@@ -10601,22 +10601,22 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Henan Songshan Longmen</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
         <v>1</v>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>Wuhan Three Towns</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
-        <v>3</v>
-      </c>
       <c r="J111" t="n">
-        <v>11.58</v>
+        <v>1.97</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -10624,15 +10624,15 @@
         </is>
       </c>
       <c r="L111" t="n">
-        <v>12.04</v>
+        <v>1.94</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>03/07/2023 13:34</t>
+          <t>03/07/2023 13:33</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>6.73</v>
+        <v>3.49</v>
       </c>
       <c r="O111" t="inlineStr">
         <is>
@@ -10640,15 +10640,15 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>7.05</v>
+        <v>3.67</v>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
-          <t>03/07/2023 13:34</t>
+          <t>03/07/2023 13:33</t>
         </is>
       </c>
       <c r="R111" t="n">
-        <v>1.22</v>
+        <v>3.94</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -10656,16 +10656,16 @@
         </is>
       </c>
       <c r="T111" t="n">
-        <v>1.2</v>
+        <v>3.87</v>
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>03/07/2023 13:07</t>
+          <t>03/07/2023 13:33</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-wuhan-three-towns/Wt0Qnxee/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-henan-songshan-longmen/zZKkgvIR/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>3</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Henan Songshan Longmen</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
       <c r="J113" t="n">
-        <v>1.97</v>
+        <v>11.58</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.94</v>
+        <v>12.04</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>03/07/2023 13:33</t>
+          <t>03/07/2023 13:34</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.49</v>
+        <v>6.73</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.67</v>
+        <v>7.05</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>03/07/2023 13:33</t>
+          <t>03/07/2023 13:34</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.94</v>
+        <v>1.22</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.87</v>
+        <v>1.2</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>03/07/2023 13:33</t>
+          <t>03/07/2023 13:07</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-henan-songshan-longmen/zZKkgvIR/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-wuhan-three-towns/Wt0Qnxee/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1.78</v>
+        <v>1.97</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.82</v>
+        <v>1.46</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.63</v>
+        <v>3.39</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,7 +15424,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.78</v>
+        <v>4.3</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
@@ -15432,7 +15432,7 @@
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.69</v>
+        <v>4.05</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>4.29</v>
+        <v>7.46</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
@@ -15449,7 +15449,7 @@
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-nantong-zhiyun/CAMyMl9S/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-chengdu-rongcheng/EJ83H8Hq/</t>
         </is>
       </c>
     </row>
@@ -15477,7 +15477,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -15485,14 +15485,14 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J164" t="n">
-        <v>1.97</v>
+        <v>6.92</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.46</v>
+        <v>6.18</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
@@ -15508,7 +15508,7 @@
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.39</v>
+        <v>4.55</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.3</v>
+        <v>4.53</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>08/08/2023 13:34</t>
+          <t>08/08/2023 13:27</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.05</v>
+        <v>1.45</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>7.46</v>
+        <v>1.5</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>08/08/2023 13:34</t>
+          <t>08/08/2023 13:27</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-chengdu-rongcheng/EJ83H8Hq/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-port/8I1CFnnd/</t>
         </is>
       </c>
     </row>
@@ -15569,22 +15569,22 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J165" t="n">
-        <v>6.92</v>
+        <v>1.78</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -15592,7 +15592,7 @@
         </is>
       </c>
       <c r="L165" t="n">
-        <v>6.18</v>
+        <v>1.82</v>
       </c>
       <c r="M165" t="inlineStr">
         <is>
@@ -15600,7 +15600,7 @@
         </is>
       </c>
       <c r="N165" t="n">
-        <v>4.55</v>
+        <v>3.63</v>
       </c>
       <c r="O165" t="inlineStr">
         <is>
@@ -15608,15 +15608,15 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>4.53</v>
+        <v>3.78</v>
       </c>
       <c r="Q165" t="inlineStr">
         <is>
-          <t>08/08/2023 13:27</t>
+          <t>08/08/2023 13:34</t>
         </is>
       </c>
       <c r="R165" t="n">
-        <v>1.45</v>
+        <v>4.69</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -15624,16 +15624,16 @@
         </is>
       </c>
       <c r="T165" t="n">
-        <v>1.5</v>
+        <v>4.29</v>
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>08/08/2023 13:27</t>
+          <t>08/08/2023 13:34</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-port/8I1CFnnd/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-nantong-zhiyun/CAMyMl9S/</t>
         </is>
       </c>
     </row>
@@ -20970,6 +20970,98 @@
       <c r="V223" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-shanghai-shenhua/0Esu1sYe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45221.39583333334</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Qingdao Hainiu</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Tianjin Jinmen Tiger</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>4</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:27</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:27</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>15/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:27</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-tianjin-jinmen-tiger/EHoq01m2/</t>
         </is>
       </c>
     </row>

--- a/2023/china_super-league_2023.xlsx
+++ b/2023/china_super-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V224"/>
+  <dimension ref="A1:V225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21065,6 +21065,98 @@
         </is>
       </c>
     </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45222.56597222222</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Chengdu Rongcheng</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>4</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>23/10/2023 06:38</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>23/10/2023 06:38</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>23/10/2023 06:38</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>23/10/2023 06:38</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>46.21</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>23/10/2023 06:38</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>46.21</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>23/10/2023 06:38</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-shenzhen-fc/SKZQOpQ2/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/china_super-league_2023.xlsx
+++ b/2023/china_super-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:V233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5.38</v>
+        <v>3.88</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>7.05</v>
+        <v>3.16</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:30</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:27</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.51</v>
+        <v>2.35</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:30</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-qingdao-hainiu/YcCyH7oh/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shandong-taishan/4O7XHmWo/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Qingdao Hainiu</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>1</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Shandong Taishan</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>3.88</v>
+        <v>5.38</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>3.16</v>
+        <v>7.05</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:30</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:27</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.35</v>
+        <v>1.51</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:30</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shandong-taishan/4O7XHmWo/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-qingdao-hainiu/YcCyH7oh/</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G55" t="n">
@@ -5457,63 +5457,63 @@
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.46</v>
+        <v>1.78</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>11/05/2023 14:31</t>
+          <t>14/05/2023 08:17</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>4.8</v>
+        <v>1.76</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>14/05/2023 13:34</t>
+          <t>14/05/2023 12:27</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>11/05/2023 14:31</t>
+          <t>14/05/2023 08:17</t>
         </is>
       </c>
       <c r="P55" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>14/05/2023 13:34</t>
+          <t>14/05/2023 13:30</t>
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.74</v>
+        <v>4.58</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>11/05/2023 14:31</t>
+          <t>14/05/2023 08:17</t>
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.7</v>
+        <v>4.86</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>14/05/2023 13:34</t>
+          <t>14/05/2023 13:30</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shanghai-port/CdZoCbND/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-henan-songshan-longmen/8O8536JD/</t>
         </is>
       </c>
     </row>
@@ -5541,7 +5541,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G56" t="n">
@@ -5549,63 +5549,63 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>1.78</v>
+        <v>4.46</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>14/05/2023 08:17</t>
+          <t>11/05/2023 14:31</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1.76</v>
+        <v>4.8</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>14/05/2023 12:27</t>
+          <t>14/05/2023 13:34</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.37</v>
+        <v>3.6</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>14/05/2023 08:17</t>
+          <t>11/05/2023 14:31</t>
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>14/05/2023 13:30</t>
+          <t>14/05/2023 13:34</t>
         </is>
       </c>
       <c r="R56" t="n">
-        <v>4.58</v>
+        <v>1.74</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>14/05/2023 08:17</t>
+          <t>11/05/2023 14:31</t>
         </is>
       </c>
       <c r="T56" t="n">
-        <v>4.86</v>
+        <v>1.7</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>14/05/2023 13:30</t>
+          <t>14/05/2023 13:34</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-henan-songshan-longmen/8O8536JD/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shanghai-port/CdZoCbND/</t>
         </is>
       </c>
     </row>
@@ -5817,22 +5817,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>2.09</v>
+        <v>2.38</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.81</v>
+        <v>2.94</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
@@ -5848,7 +5848,7 @@
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,32 +5856,32 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.46</v>
+        <v>3.17</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>19/05/2023 13:33</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:01</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
           <t>19/05/2023 13:34</t>
         </is>
       </c>
-      <c r="R59" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:01</t>
-        </is>
-      </c>
-      <c r="T59" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>19/05/2023 13:34</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-shenzhen-fc/K2OL5d0s/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-zhejiang-professional/GUHU3zVg/</t>
         </is>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G60" t="n">
@@ -5917,14 +5917,14 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I60" t="n">
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>2.07</v>
+        <v>2.09</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -5932,15 +5932,15 @@
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>19/05/2023 13:26</t>
+          <t>19/05/2023 13:34</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.17</v>
+        <v>3.22</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -5948,15 +5948,15 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>19/05/2023 13:26</t>
+          <t>19/05/2023 13:34</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.66</v>
+        <v>3.53</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -5964,16 +5964,16 @@
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.87</v>
+        <v>4.85</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>19/05/2023 13:31</t>
+          <t>19/05/2023 13:34</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-beijing-guoan/AiHY2fp0/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-shenzhen-fc/K2OL5d0s/</t>
         </is>
       </c>
     </row>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -6009,63 +6009,63 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J61" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:01</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>19/05/2023 13:28</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>17/05/2023 18:01</t>
+        </is>
+      </c>
+      <c r="P61" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>19/05/2023 13:27</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
         <v>2.38</v>
       </c>
-      <c r="K61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>17/05/2023 18:01</t>
         </is>
       </c>
-      <c r="L61" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>19/05/2023 13:34</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:01</t>
-        </is>
-      </c>
-      <c r="P61" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>19/05/2023 13:33</t>
-        </is>
-      </c>
-      <c r="R61" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>17/05/2023 18:01</t>
-        </is>
-      </c>
       <c r="T61" t="n">
-        <v>2.57</v>
+        <v>3.29</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>19/05/2023 13:34</t>
+          <t>19/05/2023 13:28</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-zhejiang-professional/GUHU3zVg/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-changchun-yatai/xvJQ4GFm/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2.9</v>
+        <v>2.07</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>19/05/2023 13:28</t>
+          <t>19/05/2023 13:26</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.27</v>
+        <v>3.17</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.33</v>
+        <v>3.11</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>19/05/2023 13:27</t>
+          <t>19/05/2023 13:26</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.38</v>
+        <v>3.66</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>19/05/2023 13:28</t>
+          <t>19/05/2023 13:31</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-changchun-yatai/xvJQ4GFm/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-beijing-guoan/AiHY2fp0/</t>
         </is>
       </c>
     </row>
@@ -6185,22 +6185,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>5.11</v>
+        <v>3.76</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -6208,15 +6208,15 @@
         </is>
       </c>
       <c r="L63" t="n">
-        <v>6.31</v>
+        <v>4.13</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>20/05/2023 13:32</t>
+          <t>20/05/2023 13:30</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.02</v>
+        <v>3.41</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
@@ -6224,15 +6224,15 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.42</v>
+        <v>3.68</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>20/05/2023 13:32</t>
+          <t>20/05/2023 13:30</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -6240,16 +6240,16 @@
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>20/05/2023 13:26</t>
+          <t>20/05/2023 13:30</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-shanghai-port/6JAs1YEC/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-shandong-taishan/pA9o0hUI/</t>
         </is>
       </c>
     </row>
@@ -6277,22 +6277,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>2.81</v>
+        <v>5.11</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -6300,15 +6300,15 @@
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.76</v>
+        <v>6.31</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 13:33</t>
+          <t>20/05/2023 13:32</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.11</v>
+        <v>4.02</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
@@ -6316,7 +6316,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.09</v>
+        <v>4.42</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.55</v>
+        <v>1.57</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -6332,16 +6332,16 @@
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 13:34</t>
+          <t>20/05/2023 13:26</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-dalian-professional/OfLx2Ea6/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-shanghai-port/6JAs1YEC/</t>
         </is>
       </c>
     </row>
@@ -6369,22 +6369,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.76</v>
+        <v>2.81</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -6392,15 +6392,15 @@
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4.13</v>
+        <v>2.76</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 13:30</t>
+          <t>20/05/2023 13:33</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.41</v>
+        <v>3.11</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
@@ -6408,15 +6408,15 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.68</v>
+        <v>3.09</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 13:30</t>
+          <t>20/05/2023 13:32</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.94</v>
+        <v>2.55</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -6424,16 +6424,16 @@
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.88</v>
+        <v>2.8</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 13:30</t>
+          <t>20/05/2023 13:34</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-shandong-taishan/pA9o0hUI/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-dalian-professional/OfLx2Ea6/</t>
         </is>
       </c>
     </row>
@@ -6461,22 +6461,22 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J66" t="n">
-        <v>5.7</v>
+        <v>1.48</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -6484,48 +6484,48 @@
         </is>
       </c>
       <c r="L66" t="n">
-        <v>4.61</v>
+        <v>1.87</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
+          <t>23/05/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>21/05/2023 16:02</t>
+        </is>
+      </c>
+      <c r="P66" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
           <t>23/05/2023 13:31</t>
         </is>
       </c>
-      <c r="N66" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="O66" t="inlineStr">
+      <c r="R66" t="n">
+        <v>7.04</v>
+      </c>
+      <c r="S66" t="inlineStr">
         <is>
           <t>21/05/2023 16:02</t>
         </is>
       </c>
-      <c r="P66" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="Q66" t="inlineStr">
+      <c r="T66" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U66" t="inlineStr">
         <is>
           <t>23/05/2023 13:33</t>
         </is>
       </c>
-      <c r="R66" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:02</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t>23/05/2023 13:29</t>
-        </is>
-      </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-wuhan-three-towns/bRCSOy7J/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-cangzhou-mighty-lions/xIBWNeMP/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J68" t="n">
-        <v>1.8</v>
+        <v>5.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>2.17</v>
+        <v>4.61</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>23/05/2023 13:32</t>
+          <t>23/05/2023 13:31</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.72</v>
+        <v>3.8</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.67</v>
+        <v>3.61</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>23/05/2023 13:32</t>
+          <t>23/05/2023 13:33</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>3.98</v>
+        <v>1.61</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>3.2</v>
+        <v>1.81</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>23/05/2023 13:31</t>
+          <t>23/05/2023 13:29</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-qingdao-hainiu/ralaJFUt/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-wuhan-three-towns/bRCSOy7J/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.87</v>
+        <v>2.17</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>23/05/2023 13:33</t>
+          <t>23/05/2023 13:32</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.12</v>
+        <v>3.72</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,32 +6776,32 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.34</v>
+        <v>3.67</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>23/05/2023 13:32</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>21/05/2023 16:02</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
           <t>23/05/2023 13:31</t>
         </is>
       </c>
-      <c r="R69" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:02</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>4.45</v>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t>23/05/2023 13:33</t>
-        </is>
-      </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-cangzhou-mighty-lions/xIBWNeMP/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-qingdao-hainiu/ralaJFUt/</t>
         </is>
       </c>
     </row>
@@ -6829,71 +6829,71 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>21/05/2023 16:17</t>
+          <t>21/05/2023 16:16</t>
         </is>
       </c>
       <c r="L70" t="n">
-        <v>2.89</v>
+        <v>1.15</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>24/05/2023 13:25</t>
+          <t>24/05/2023 13:29</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>3.16</v>
+        <v>6.57</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>21/05/2023 16:17</t>
+          <t>21/05/2023 16:16</t>
         </is>
       </c>
       <c r="P70" t="n">
-        <v>3.27</v>
+        <v>7.86</v>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>24/05/2023 13:25</t>
+          <t>24/05/2023 13:31</t>
         </is>
       </c>
       <c r="R70" t="n">
-        <v>2.71</v>
+        <v>15.6</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>21/05/2023 16:17</t>
+          <t>21/05/2023 16:16</t>
         </is>
       </c>
       <c r="T70" t="n">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>24/05/2023 13:25</t>
+          <t>24/05/2023 13:31</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-zhejiang-professional/jPi7Hgag/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-henan-songshan-longmen/QspKEiqC/</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G71" t="n">
@@ -6929,14 +6929,14 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 13:29</t>
+          <t>24/05/2023 13:26</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>6.57</v>
+        <v>6.66</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>7.86</v>
+        <v>7.46</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 13:31</t>
+          <t>24/05/2023 13:30</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>15.6</v>
+        <v>16.36</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>17</v>
+        <v>15.25</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 13:31</t>
+          <t>24/05/2023 13:30</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-henan-songshan-longmen/QspKEiqC/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-shenzhen-fc/nioGFXT5/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J73" t="n">
-        <v>1.18</v>
+        <v>2.6</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:16</t>
+          <t>21/05/2023 16:17</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.17</v>
+        <v>2.89</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 13:26</t>
+          <t>24/05/2023 13:25</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>6.66</v>
+        <v>3.16</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:16</t>
+          <t>21/05/2023 16:17</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>7.46</v>
+        <v>3.27</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24/05/2023 13:30</t>
+          <t>24/05/2023 13:25</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>16.36</v>
+        <v>2.71</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:16</t>
+          <t>21/05/2023 16:17</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>15.25</v>
+        <v>2.55</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 13:30</t>
+          <t>24/05/2023 13:25</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-shenzhen-fc/nioGFXT5/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-zhejiang-professional/jPi7Hgag/</t>
         </is>
       </c>
     </row>
@@ -7565,22 +7565,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>3.92</v>
+        <v>2.61</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>3.04</v>
+        <v>2.77</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>28/05/2023 13:33</t>
+          <t>28/05/2023 13:31</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.08</v>
+        <v>3.14</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>28/05/2023 13:33</t>
+          <t>28/05/2023 13:31</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>1.94</v>
+        <v>2.7</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.57</v>
+        <v>2.74</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>28/05/2023 13:33</t>
+          <t>28/05/2023 13:31</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-meizhou-hakka/Qs6kUWra/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-tianjin-jinmen-tiger/4SHtWhEn/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>1.56</v>
+        <v>3.92</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>1.51</v>
+        <v>3.04</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 12:50</t>
+          <t>28/05/2023 13:33</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.15</v>
+        <v>3.08</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:02</t>
+          <t>28/05/2023 13:33</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>5.85</v>
+        <v>1.94</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>6.91</v>
+        <v>2.57</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:02</t>
+          <t>28/05/2023 13:33</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-henan-songshan-longmen/rJGpVCTh/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-meizhou-hakka/Qs6kUWra/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I80" t="n">
         <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>2.61</v>
+        <v>1.56</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.77</v>
+        <v>1.51</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 13:31</t>
+          <t>28/05/2023 12:50</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.14</v>
+        <v>4.15</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 13:31</t>
+          <t>28/05/2023 13:02</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.7</v>
+        <v>5.85</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>2.74</v>
+        <v>6.91</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 13:31</t>
+          <t>28/05/2023 13:02</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-tianjin-jinmen-tiger/4SHtWhEn/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-henan-songshan-longmen/rJGpVCTh/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
         <v>3</v>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Shenzhen</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
       <c r="J82" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>28/05/2023 13:42</t>
+          <t>29/05/2023 13:41</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>02/06/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>29/05/2023 13:41</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
           <t>02/06/2023 13:34</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>28/05/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q82" t="inlineStr">
+      <c r="R82" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>29/05/2023 13:41</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="U82" t="inlineStr">
         <is>
           <t>02/06/2023 13:34</t>
         </is>
       </c>
-      <c r="R82" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>28/05/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>02/06/2023 13:34</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shenzhen-fc/Cb81RUSH/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-changchun-yatai/Y79cSADB/</t>
         </is>
       </c>
     </row>
@@ -8025,46 +8025,46 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>29/05/2023 13:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>02/06/2023 13:29</t>
+          <t>02/06/2023 13:34</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>4.27</v>
+        <v>4.96</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>29/05/2023 13:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>4.37</v>
+        <v>4.15</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
@@ -8072,15 +8072,15 @@
         </is>
       </c>
       <c r="R83" t="n">
-        <v>5.97</v>
+        <v>8.08</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>29/05/2023 13:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>5.49</v>
+        <v>4.73</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
@@ -8089,7 +8089,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-changchun-yatai/Y79cSADB/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shenzhen-fc/Cb81RUSH/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.11</v>
+        <v>1.29</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>30/05/2023 03:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.34</v>
+        <v>1.42</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>03/06/2023 13:25</t>
+          <t>03/06/2023 13:34</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.29</v>
+        <v>5.41</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>30/05/2023 03:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.14</v>
+        <v>4.65</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>03/06/2023 13:25</t>
+          <t>03/06/2023 13:34</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.69</v>
+        <v>8.25</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>30/05/2023 03:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>3.35</v>
+        <v>7.71</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>03/06/2023 13:25</t>
+          <t>03/06/2023 13:34</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-meizhou-hakka/UZnS8MCj/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-dalian-professional/rwyAX5ki/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,63 +8309,63 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.29</v>
+        <v>2.11</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>28/05/2023 13:42</t>
+          <t>30/05/2023 03:41</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.42</v>
+        <v>2.34</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>03/06/2023 13:34</t>
+          <t>03/06/2023 13:25</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>5.41</v>
+        <v>3.29</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>28/05/2023 13:42</t>
+          <t>30/05/2023 03:41</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>4.65</v>
+        <v>3.14</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>03/06/2023 13:34</t>
+          <t>03/06/2023 13:25</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>8.25</v>
+        <v>3.69</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>28/05/2023 13:42</t>
+          <t>30/05/2023 03:41</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>7.71</v>
+        <v>3.35</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>03/06/2023 13:34</t>
+          <t>03/06/2023 13:25</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-dalian-professional/rwyAX5ki/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-meizhou-hakka/UZnS8MCj/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>3.57</v>
+        <v>1.47</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>02/06/2023 13:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>4.16</v>
+        <v>1.19</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
+          <t>08/06/2023 13:25</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>02/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>7.18</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
           <t>08/06/2023 13:34</t>
         </is>
       </c>
-      <c r="N90" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>04/06/2023 11:42</t>
-        </is>
-      </c>
-      <c r="P90" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q90" t="inlineStr">
+      <c r="R90" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>02/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>13.74</v>
+      </c>
+      <c r="U90" t="inlineStr">
         <is>
           <t>08/06/2023 13:34</t>
         </is>
       </c>
-      <c r="R90" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>04/06/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T90" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>08/06/2023 13:34</t>
-        </is>
-      </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-shenhua/8pMZR1JS/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-shenzhen-fc/nVXQTNlG/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,63 +8769,63 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.56</v>
+        <v>3.57</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.74</v>
+        <v>4.16</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>6.45</v>
+        <v>2.18</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.24</v>
+        <v>2.01</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-tianjin-jinmen-tiger/QLWUSs4M/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-shenhua/8pMZR1JS/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>02/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.19</v>
+        <v>1.74</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>08/06/2023 13:25</t>
+          <t>08/06/2023 13:17</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>02/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>7.18</v>
+        <v>3.57</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>08/06/2023 13:34</t>
+          <t>08/06/2023 13:17</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.81</v>
+        <v>6.45</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>02/06/2023 13:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>13.74</v>
+        <v>5.24</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>08/06/2023 13:34</t>
+          <t>08/06/2023 13:17</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-shenzhen-fc/nVXQTNlG/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-tianjin-jinmen-tiger/QLWUSs4M/</t>
         </is>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G94" t="n">
@@ -9045,63 +9045,63 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>3.96</v>
+        <v>1.26</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>03/06/2023 13:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>4.15</v>
+        <v>1.18</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>09/06/2023 13:13</t>
+          <t>09/06/2023 13:29</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.5</v>
+        <v>5.55</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>03/06/2023 13:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.68</v>
+        <v>6.72</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>09/06/2023 13:13</t>
+          <t>09/06/2023 13:29</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.96</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>03/06/2023 13:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.87</v>
+        <v>16.33</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>09/06/2023 13:13</t>
+          <t>09/06/2023 13:33</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-beijing-guoan/21Q8Ladd/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-nantong-zhiyun/OAR4Musj/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>2.15</v>
+        <v>2.19</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>09/06/2023 13:32</t>
+          <t>09/06/2023 13:30</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.59</v>
+        <v>3.3</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,23 +9168,23 @@
         </is>
       </c>
       <c r="P95" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>09/06/2023 13:30</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
         <v>3.48</v>
       </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>09/06/2023 13:08</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>3.05</v>
-      </c>
       <c r="S95" t="inlineStr">
         <is>
           <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.04</v>
+        <v>3.15</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-shandong-taishan/I98eq3l3/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-cangzhou-mighty-lions/vJ9ipqZd/</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G96" t="n">
@@ -9229,63 +9229,63 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="n">
-        <v>1.26</v>
+        <v>3.96</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>03/06/2023 13:42</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.18</v>
+        <v>4.15</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>09/06/2023 13:29</t>
+          <t>09/06/2023 13:13</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>5.55</v>
+        <v>3.5</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>03/06/2023 13:42</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>6.72</v>
+        <v>3.68</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>09/06/2023 13:29</t>
+          <t>09/06/2023 13:13</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>9.220000000000001</v>
+        <v>1.96</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>03/06/2023 13:42</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>16.33</v>
+        <v>1.87</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>09/06/2023 13:33</t>
+          <t>09/06/2023 13:13</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-nantong-zhiyun/OAR4Musj/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-beijing-guoan/21Q8Ladd/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>2.19</v>
+        <v>2.15</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,48 +9336,48 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>09/06/2023 13:32</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>04/06/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>09/06/2023 13:08</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>04/06/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
           <t>09/06/2023 13:30</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>04/06/2023 09:42</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>09/06/2023 13:30</t>
-        </is>
-      </c>
-      <c r="R97" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>04/06/2023 09:42</t>
-        </is>
-      </c>
-      <c r="T97" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>09/06/2023 13:30</t>
-        </is>
-      </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-cangzhou-mighty-lions/vJ9ipqZd/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-shandong-taishan/I98eq3l3/</t>
         </is>
       </c>
     </row>
@@ -10233,7 +10233,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G107" t="n">
@@ -10241,14 +10241,14 @@
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>2.44</v>
+        <v>2.83</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -10256,15 +10256,15 @@
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:33</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
@@ -10272,15 +10272,15 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.11</v>
+        <v>3.46</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:33</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.14</v>
+        <v>2.6</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.55</v>
+        <v>2.4</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>02/07/2023 13:34</t>
+          <t>02/07/2023 13:33</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-meizhou-hakka/ppSxdtY8/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-zhejiang-professional/2LMse0mF/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>2.83</v>
+        <v>2.4</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,48 +10348,48 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.96</v>
+        <v>2.03</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
+          <t>02/07/2023 13:30</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>28/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
           <t>02/07/2023 13:33</t>
         </is>
       </c>
-      <c r="N108" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O108" t="inlineStr">
+      <c r="R108" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S108" t="inlineStr">
         <is>
           <t>28/06/2023 13:42</t>
         </is>
       </c>
-      <c r="P108" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="Q108" t="inlineStr">
+      <c r="T108" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U108" t="inlineStr">
         <is>
           <t>02/07/2023 13:33</t>
         </is>
       </c>
-      <c r="R108" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S108" t="inlineStr">
-        <is>
-          <t>28/06/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T108" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U108" t="inlineStr">
-        <is>
-          <t>02/07/2023 13:33</t>
-        </is>
-      </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-zhejiang-professional/2LMse0mF/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-qingdao-hainiu/tCLofK2L/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:30</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.21</v>
+        <v>3.13</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.36</v>
+        <v>3.11</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:33</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.92</v>
+        <v>3.14</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.92</v>
+        <v>4.55</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>02/07/2023 13:33</t>
+          <t>02/07/2023 13:34</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-qingdao-hainiu/tCLofK2L/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-meizhou-hakka/ppSxdtY8/</t>
         </is>
       </c>
     </row>
@@ -10509,22 +10509,22 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>1</v>
       </c>
       <c r="J110" t="n">
-        <v>2.07</v>
+        <v>2.47</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -10532,7 +10532,7 @@
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.85</v>
+        <v>2.62</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.31</v>
+        <v>3.27</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
@@ -10548,32 +10548,32 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.59</v>
+        <v>3.05</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
+          <t>03/07/2023 13:31</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>29/06/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>3</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
           <t>03/07/2023 13:34</t>
         </is>
       </c>
-      <c r="R110" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="S110" t="inlineStr">
-        <is>
-          <t>29/06/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T110" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="U110" t="inlineStr">
-        <is>
-          <t>03/07/2023 13:34</t>
-        </is>
-      </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-beijing-guoan/ARBHlbQr/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-shanghai-port/hj1MmIuk/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I112" t="n">
         <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.47</v>
+        <v>2.07</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,7 +10716,7 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.62</v>
+        <v>1.85</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.27</v>
+        <v>3.31</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.05</v>
+        <v>3.59</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>03/07/2023 13:31</t>
+          <t>03/07/2023 13:34</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>2.98</v>
+        <v>3.81</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3</v>
+        <v>4.39</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
@@ -10757,7 +10757,7 @@
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-shanghai-port/hj1MmIuk/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-beijing-guoan/ARBHlbQr/</t>
         </is>
       </c>
     </row>
@@ -10877,71 +10877,71 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="I114" t="n">
         <v>1</v>
       </c>
       <c r="J114" t="n">
-        <v>2.84</v>
+        <v>4.34</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>02/07/2023 13:42</t>
+          <t>03/07/2023 13:41</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.31</v>
+        <v>5.06</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>07/07/2023 13:30</t>
+          <t>07/07/2023 13:34</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.09</v>
+        <v>3.56</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>02/07/2023 13:42</t>
+          <t>03/07/2023 13:41</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.17</v>
+        <v>4.09</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>07/07/2023 13:26</t>
+          <t>07/07/2023 13:31</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>2.7</v>
+        <v>1.86</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>02/07/2023 13:42</t>
+          <t>03/07/2023 13:41</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.37</v>
+        <v>1.65</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>07/07/2023 13:30</t>
+          <t>07/07/2023 13:34</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shanghai-shenhua/lxoP7wXK/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-chengdu-rongcheng/fFoL8JHE/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="I115" t="n">
         <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>5.55</v>
+        <v>2.21</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>03/07/2023 13:41</t>
+          <t>02/07/2023 13:42</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>4.81</v>
+        <v>2.67</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>07/07/2023 13:13</t>
+          <t>07/07/2023 13:26</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>4.06</v>
+        <v>3.31</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>03/07/2023 13:41</t>
+          <t>02/07/2023 13:42</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.47</v>
+        <v>3.37</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>07/07/2023 13:13</t>
+          <t>07/07/2023 12:31</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>1.6</v>
+        <v>3.41</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>03/07/2023 13:41</t>
+          <t>02/07/2023 13:42</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>1.81</v>
+        <v>2.68</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>07/07/2023 13:13</t>
+          <t>07/07/2023 13:26</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-shandong-taishan/tCsH9a28/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-cangzhou-mighty-lions/0G4UodA1/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I116" t="n">
         <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>1.58</v>
+        <v>2.31</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>07/07/2023 13:15</t>
+          <t>07/07/2023 13:30</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.77</v>
+        <v>3.17</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>07/07/2023 13:33</t>
+          <t>07/07/2023 13:26</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>4.83</v>
+        <v>2.7</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>5.67</v>
+        <v>3.37</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>07/07/2023 13:32</t>
+          <t>07/07/2023 13:30</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-nantong-zhiyun/v73YpGP7/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shanghai-shenhua/lxoP7wXK/</t>
         </is>
       </c>
     </row>
@@ -11153,7 +11153,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G117" t="n">
@@ -11161,14 +11161,14 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.21</v>
+        <v>1.81</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.67</v>
+        <v>1.58</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>07/07/2023 13:26</t>
+          <t>07/07/2023 13:15</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.31</v>
+        <v>3.43</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.37</v>
+        <v>3.77</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>07/07/2023 12:31</t>
+          <t>07/07/2023 13:33</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>3.41</v>
+        <v>4.83</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.68</v>
+        <v>5.67</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>07/07/2023 13:26</t>
+          <t>07/07/2023 13:32</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-cangzhou-mighty-lions/0G4UodA1/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-nantong-zhiyun/v73YpGP7/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I118" t="n">
         <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>4.34</v>
+        <v>5.55</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>5.06</v>
+        <v>4.81</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>07/07/2023 13:34</t>
+          <t>07/07/2023 13:13</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.09</v>
+        <v>3.47</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>07/07/2023 13:31</t>
+          <t>07/07/2023 13:13</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>1.86</v>
+        <v>1.6</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>07/07/2023 13:34</t>
+          <t>07/07/2023 13:13</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-chengdu-rongcheng/fFoL8JHE/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-shandong-taishan/tCsH9a28/</t>
         </is>
       </c>
     </row>
@@ -11337,71 +11337,71 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>03/07/2023 13:42</t>
+          <t>03/07/2023 13:41</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.45</v>
+        <v>1.1</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
+          <t>08/07/2023 13:31</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>7.72</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>03/07/2023 13:41</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>10.52</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
           <t>08/07/2023 13:32</t>
         </is>
       </c>
-      <c r="N119" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="O119" t="inlineStr">
-        <is>
-          <t>03/07/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P119" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="Q119" t="inlineStr">
+      <c r="R119" t="n">
+        <v>18.86</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>03/07/2023 13:41</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="U119" t="inlineStr">
         <is>
           <t>08/07/2023 13:32</t>
         </is>
       </c>
-      <c r="R119" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="S119" t="inlineStr">
-        <is>
-          <t>03/07/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T119" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="U119" t="inlineStr">
-        <is>
-          <t>08/07/2023 13:32</t>
-        </is>
-      </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-changchun-yatai/db2i1yAl/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-shenzhen-fc/SSqT6cnR/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>03/07/2023 13:41</t>
+          <t>03/07/2023 13:42</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>08/07/2023 13:31</t>
+          <t>08/07/2023 13:20</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>7.72</v>
+        <v>5.95</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>03/07/2023 13:41</t>
+          <t>03/07/2023 13:42</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>10.52</v>
+        <v>6.68</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>08/07/2023 13:32</t>
+          <t>08/07/2023 13:20</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>18.86</v>
+        <v>12.24</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>03/07/2023 13:41</t>
+          <t>03/07/2023 13:42</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>25.8</v>
+        <v>14.1</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>08/07/2023 13:32</t>
+          <t>08/07/2023 13:20</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-shenzhen-fc/SSqT6cnR/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-dalian-professional/I73m2Hfr/</t>
         </is>
       </c>
     </row>
@@ -11521,22 +11521,22 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I121" t="n">
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -11544,15 +11544,15 @@
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>08/07/2023 13:20</t>
+          <t>08/07/2023 13:32</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>5.95</v>
+        <v>4.91</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
@@ -11560,15 +11560,15 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>6.68</v>
+        <v>5.08</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>08/07/2023 13:20</t>
+          <t>08/07/2023 13:32</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>12.24</v>
+        <v>6.35</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -11576,16 +11576,16 @@
         </is>
       </c>
       <c r="T121" t="n">
-        <v>14.1</v>
+        <v>6.01</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>08/07/2023 13:20</t>
+          <t>08/07/2023 13:32</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-dalian-professional/I73m2Hfr/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-changchun-yatai/db2i1yAl/</t>
         </is>
       </c>
     </row>
@@ -11613,22 +11613,22 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>1.71</v>
+        <v>2.89</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -11636,15 +11636,15 @@
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.67</v>
+        <v>2.24</v>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>11/07/2023 13:32</t>
+          <t>11/07/2023 13:33</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>3.6</v>
+        <v>3.12</v>
       </c>
       <c r="O122" t="inlineStr">
         <is>
@@ -11652,7 +11652,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>3.58</v>
+        <v>3.23</v>
       </c>
       <c r="Q122" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         </is>
       </c>
       <c r="R122" t="n">
-        <v>5.34</v>
+        <v>2.63</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         </is>
       </c>
       <c r="T122" t="n">
-        <v>5.85</v>
+        <v>3.47</v>
       </c>
       <c r="U122" t="inlineStr">
         <is>
@@ -11677,7 +11677,7 @@
       </c>
       <c r="V122" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-shanghai-shenhua/nme4bZg7/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-tianjin-jinmen-tiger/jL1e0ePf/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>1.4</v>
+        <v>1.71</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,15 +11728,15 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>11/07/2023 13:28</t>
+          <t>11/07/2023 13:32</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>4.62</v>
+        <v>3.6</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,15 +11744,15 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.99</v>
+        <v>3.58</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
-          <t>11/07/2023 13:31</t>
+          <t>11/07/2023 13:33</t>
         </is>
       </c>
       <c r="R123" t="n">
-        <v>8.08</v>
+        <v>5.34</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>6.35</v>
+        <v>5.85</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>11/07/2023 13:28</t>
+          <t>11/07/2023 13:33</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-henan-songshan-longmen/4O5aaFv1/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-shanghai-shenhua/nme4bZg7/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.89</v>
+        <v>1.4</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,15 +11820,15 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.24</v>
+        <v>1.56</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>11/07/2023 13:33</t>
+          <t>11/07/2023 13:28</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.12</v>
+        <v>4.62</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,15 +11836,15 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.23</v>
+        <v>3.99</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
-          <t>11/07/2023 13:33</t>
+          <t>11/07/2023 13:31</t>
         </is>
       </c>
       <c r="R124" t="n">
-        <v>2.63</v>
+        <v>8.08</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.47</v>
+        <v>6.35</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>11/07/2023 13:33</t>
+          <t>11/07/2023 13:28</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-tianjin-jinmen-tiger/jL1e0ePf/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-henan-songshan-longmen/4O5aaFv1/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,14 +11897,14 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="I125" t="n">
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>3.99</v>
+        <v>2.03</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.7</v>
+        <v>1.91</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>12/07/2023 13:34</t>
+          <t>12/07/2023 13:32</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.61</v>
+        <v>3.51</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>12/07/2023 13:34</t>
+          <t>12/07/2023 13:32</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>1.83</v>
+        <v>3.68</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.58</v>
+        <v>3.91</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>12/07/2023 13:34</t>
+          <t>12/07/2023 13:32</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-beijing-guoan/jJAJ4AGt/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-wuhan-three-towns/pI3S2log/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>2.44</v>
+        <v>1.47</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.43</v>
+        <v>1.49</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>12/07/2023 13:34</t>
+          <t>12/07/2023 13:31</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.46</v>
+        <v>4.36</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.67</v>
+        <v>4.37</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>12/07/2023 13:34</t>
+          <t>12/07/2023 13:31</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.68</v>
+        <v>7.16</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.78</v>
+        <v>6.61</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>12/07/2023 13:33</t>
+          <t>12/07/2023 13:31</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-zhejiang-professional/EgmjMxnE/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shenzhen-fc/Ys0O3UVn/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1.47</v>
+        <v>2.49</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,15 +12096,15 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.49</v>
+        <v>2.68</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>12/07/2023 13:31</t>
+          <t>12/07/2023 13:30</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.36</v>
+        <v>3.09</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>4.37</v>
+        <v>2.94</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>12/07/2023 13:31</t>
+          <t>12/07/2023 13:34</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>7.16</v>
+        <v>3.1</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>6.61</v>
+        <v>3.03</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>12/07/2023 13:31</t>
+          <t>12/07/2023 13:34</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shenzhen-fc/Ys0O3UVn/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-dalian-professional/Qwf8cg9D/</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G128" t="n">
@@ -12173,14 +12173,14 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>2.03</v>
+        <v>3.99</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.91</v>
+        <v>2.7</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>12/07/2023 13:32</t>
+          <t>12/07/2023 13:34</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.51</v>
+        <v>3.61</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.76</v>
+        <v>3.5</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>12/07/2023 13:32</t>
+          <t>12/07/2023 13:34</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>3.68</v>
+        <v>1.83</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>3.91</v>
+        <v>2.58</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>12/07/2023 13:32</t>
+          <t>12/07/2023 13:34</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-wuhan-three-towns/pI3S2log/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-beijing-guoan/jJAJ4AGt/</t>
         </is>
       </c>
     </row>
@@ -12257,22 +12257,22 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J129" t="n">
-        <v>2.49</v>
+        <v>2.44</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -12280,48 +12280,48 @@
         </is>
       </c>
       <c r="L129" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>12/07/2023 13:34</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>08/07/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>12/07/2023 13:34</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
         <v>2.68</v>
       </c>
-      <c r="M129" t="inlineStr">
-        <is>
-          <t>12/07/2023 13:30</t>
-        </is>
-      </c>
-      <c r="N129" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="O129" t="inlineStr">
+      <c r="S129" t="inlineStr">
         <is>
           <t>08/07/2023 13:42</t>
         </is>
       </c>
-      <c r="P129" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="Q129" t="inlineStr">
-        <is>
-          <t>12/07/2023 13:34</t>
-        </is>
-      </c>
-      <c r="R129" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S129" t="inlineStr">
-        <is>
-          <t>08/07/2023 13:42</t>
-        </is>
-      </c>
       <c r="T129" t="n">
-        <v>3.03</v>
+        <v>2.78</v>
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>12/07/2023 13:34</t>
+          <t>12/07/2023 13:33</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-dalian-professional/Qwf8cg9D/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-zhejiang-professional/EgmjMxnE/</t>
         </is>
       </c>
     </row>
@@ -13545,22 +13545,22 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>1</v>
       </c>
       <c r="J143" t="n">
-        <v>1.44</v>
+        <v>2.83</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.61</v>
+        <v>3</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>22/07/2023 13:26</t>
+          <t>22/07/2023 13:29</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>4.23</v>
+        <v>3.11</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.88</v>
+        <v>3.14</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>22/07/2023 13:34</t>
+          <t>22/07/2023 13:29</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>6.67</v>
+        <v>2.69</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>5.87</v>
+        <v>2.55</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>22/07/2023 13:34</t>
+          <t>22/07/2023 13:29</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-dalian-professional/2sGMCPEH/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-shanghai-shenhua/8KGID5aB/</t>
         </is>
       </c>
     </row>
@@ -13637,22 +13637,22 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>1</v>
       </c>
       <c r="J144" t="n">
-        <v>2.83</v>
+        <v>1.44</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -13660,15 +13660,15 @@
         </is>
       </c>
       <c r="L144" t="n">
-        <v>3</v>
+        <v>1.61</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>22/07/2023 13:29</t>
+          <t>22/07/2023 13:26</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.11</v>
+        <v>4.23</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
@@ -13676,15 +13676,15 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.14</v>
+        <v>3.88</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>22/07/2023 13:29</t>
+          <t>22/07/2023 13:34</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>2.69</v>
+        <v>6.67</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -13692,16 +13692,16 @@
         </is>
       </c>
       <c r="T144" t="n">
-        <v>2.55</v>
+        <v>5.87</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>22/07/2023 13:29</t>
+          <t>22/07/2023 13:34</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-shanghai-shenhua/8KGID5aB/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-dalian-professional/2sGMCPEH/</t>
         </is>
       </c>
     </row>
@@ -13913,71 +13913,71 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>26/07/2023 16:12</t>
+          <t>23/07/2023 13:42</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.17</v>
+        <v>1.51</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:28</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.47</v>
+        <v>3.41</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>26/07/2023 16:12</t>
+          <t>23/07/2023 13:42</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.49</v>
+        <v>4.31</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:31</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>26/07/2023 16:12</t>
+          <t>23/07/2023 13:42</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.35</v>
+        <v>6.76</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>29/07/2023 13:29</t>
+          <t>29/07/2023 13:05</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-changchun-yatai/fVimTpab/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-dalian-professional/2eeeROTA/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>4.14</v>
+        <v>1.66</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>4</v>
+        <v>1.61</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>29/07/2023 13:33</t>
+          <t>29/07/2023 13:30</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.37</v>
+        <v>3.88</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,15 +14044,15 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.34</v>
+        <v>4.2</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>29/07/2023 13:33</t>
+          <t>29/07/2023 13:30</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>1.96</v>
+        <v>5.28</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,16 +14060,16 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>2.01</v>
+        <v>5.22</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>29/07/2023 13:33</t>
+          <t>29/07/2023 13:30</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shanghai-port/tnfaQrqH/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-zhejiang-professional/YLjiS4E4/</t>
         </is>
       </c>
     </row>
@@ -14097,71 +14097,71 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I149" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J149" t="n">
-        <v>2.91</v>
+        <v>4.14</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>26/07/2023 16:12</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="L149" t="n">
-        <v>2.93</v>
+        <v>4</v>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>29/07/2023 13:26</t>
+          <t>29/07/2023 13:33</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>3.13</v>
+        <v>3.37</v>
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>26/07/2023 16:12</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="P149" t="n">
-        <v>3.29</v>
+        <v>3.34</v>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
-          <t>29/07/2023 13:26</t>
+          <t>29/07/2023 13:33</t>
         </is>
       </c>
       <c r="R149" t="n">
-        <v>2.45</v>
+        <v>1.96</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
-          <t>26/07/2023 16:12</t>
+          <t>22/07/2023 13:42</t>
         </is>
       </c>
       <c r="T149" t="n">
-        <v>2.51</v>
+        <v>2.01</v>
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>29/07/2023 13:26</t>
+          <t>29/07/2023 13:33</t>
         </is>
       </c>
       <c r="V149" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-cangzhou-mighty-lions/ELquV6Uo/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shanghai-port/tnfaQrqH/</t>
         </is>
       </c>
     </row>
@@ -14189,71 +14189,71 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>2.15</v>
+        <v>2.24</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>23/07/2023 13:42</t>
+          <t>26/07/2023 16:12</t>
         </is>
       </c>
       <c r="L150" t="n">
-        <v>1.51</v>
+        <v>2.17</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>29/07/2023 13:28</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.41</v>
+        <v>3.47</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>23/07/2023 13:42</t>
+          <t>26/07/2023 16:12</t>
         </is>
       </c>
       <c r="P150" t="n">
-        <v>4.31</v>
+        <v>3.49</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>29/07/2023 13:31</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
-          <t>23/07/2023 13:42</t>
+          <t>26/07/2023 16:12</t>
         </is>
       </c>
       <c r="T150" t="n">
-        <v>6.76</v>
+        <v>3.35</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>29/07/2023 13:05</t>
+          <t>29/07/2023 13:29</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-dalian-professional/2eeeROTA/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-changchun-yatai/fVimTpab/</t>
         </is>
       </c>
     </row>
@@ -14281,7 +14281,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="G151" t="n">
@@ -14289,63 +14289,63 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>2</v>
       </c>
       <c r="J151" t="n">
-        <v>1.66</v>
+        <v>2.91</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>26/07/2023 16:12</t>
         </is>
       </c>
       <c r="L151" t="n">
-        <v>1.61</v>
+        <v>2.93</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>29/07/2023 13:30</t>
+          <t>29/07/2023 13:26</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.88</v>
+        <v>3.13</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>26/07/2023 16:12</t>
         </is>
       </c>
       <c r="P151" t="n">
-        <v>4.2</v>
+        <v>3.29</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>29/07/2023 13:30</t>
+          <t>29/07/2023 13:26</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>5.28</v>
+        <v>2.45</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
-          <t>22/07/2023 13:42</t>
+          <t>26/07/2023 16:12</t>
         </is>
       </c>
       <c r="T151" t="n">
-        <v>5.22</v>
+        <v>2.51</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>29/07/2023 13:30</t>
+          <t>29/07/2023 13:26</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-zhejiang-professional/YLjiS4E4/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-cangzhou-mighty-lions/ELquV6Uo/</t>
         </is>
       </c>
     </row>
@@ -15293,22 +15293,22 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="I162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162" t="n">
-        <v>2.54</v>
+        <v>1.97</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -15316,15 +15316,15 @@
         </is>
       </c>
       <c r="L162" t="n">
-        <v>2.04</v>
+        <v>1.46</v>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>08/08/2023 13:32</t>
+          <t>08/08/2023 13:34</t>
         </is>
       </c>
       <c r="N162" t="n">
-        <v>3.46</v>
+        <v>3.39</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
@@ -15332,15 +15332,15 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>3.91</v>
+        <v>4.3</v>
       </c>
       <c r="Q162" t="inlineStr">
         <is>
-          <t>08/08/2023 13:32</t>
+          <t>08/08/2023 13:34</t>
         </is>
       </c>
       <c r="R162" t="n">
-        <v>2.58</v>
+        <v>4.05</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -15348,16 +15348,16 @@
         </is>
       </c>
       <c r="T162" t="n">
-        <v>3.33</v>
+        <v>7.46</v>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>08/08/2023 13:32</t>
+          <t>08/08/2023 13:34</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-changchun-yatai/drb8GSWk/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-chengdu-rongcheng/EJ83H8Hq/</t>
         </is>
       </c>
     </row>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G163" t="n">
@@ -15393,14 +15393,14 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J163" t="n">
-        <v>1.97</v>
+        <v>6.92</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.46</v>
+        <v>6.18</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
@@ -15416,7 +15416,7 @@
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.39</v>
+        <v>4.55</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>4.3</v>
+        <v>4.53</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>08/08/2023 13:34</t>
+          <t>08/08/2023 13:27</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.05</v>
+        <v>1.45</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>7.46</v>
+        <v>1.5</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>08/08/2023 13:34</t>
+          <t>08/08/2023 13:27</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-chengdu-rongcheng/EJ83H8Hq/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-port/8I1CFnnd/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J164" t="n">
-        <v>6.92</v>
+        <v>2.54</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>6.18</v>
+        <v>2.04</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>08/08/2023 13:34</t>
+          <t>08/08/2023 13:32</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.55</v>
+        <v>3.46</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>4.53</v>
+        <v>3.91</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>08/08/2023 13:27</t>
+          <t>08/08/2023 13:32</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>1.45</v>
+        <v>2.58</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>1.5</v>
+        <v>3.33</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>08/08/2023 13:27</t>
+          <t>08/08/2023 13:32</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-port/8I1CFnnd/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-changchun-yatai/drb8GSWk/</t>
         </is>
       </c>
     </row>
@@ -15661,22 +15661,22 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="n">
-        <v>1.14</v>
+        <v>1.97</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -15684,15 +15684,15 @@
         </is>
       </c>
       <c r="L166" t="n">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>09/08/2023 13:19</t>
+          <t>09/08/2023 13:25</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>7.5</v>
+        <v>3.51</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
@@ -15700,15 +15700,15 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>12.93</v>
+        <v>3.5</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>09/08/2023 13:34</t>
+          <t>09/08/2023 13:33</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>14.86</v>
+        <v>3.56</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -15716,16 +15716,16 @@
         </is>
       </c>
       <c r="T166" t="n">
-        <v>26.89</v>
+        <v>3.85</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>09/08/2023 13:34</t>
+          <t>09/08/2023 13:33</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shenzhen-fc/0Clbwjv3/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-dalian-professional/MLkfvWOd/</t>
         </is>
       </c>
     </row>
@@ -15845,71 +15845,71 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>04/08/2023 13:42</t>
+          <t>05/08/2023 13:42</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>1.4</v>
+        <v>1.08</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>09/08/2023 13:25</t>
+          <t>09/08/2023 13:19</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>5.19</v>
+        <v>7.5</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>04/08/2023 13:42</t>
+          <t>05/08/2023 13:42</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>4.86</v>
+        <v>12.93</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>09/08/2023 13:27</t>
+          <t>09/08/2023 13:34</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>8.619999999999999</v>
+        <v>14.86</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>04/08/2023 13:42</t>
+          <t>05/08/2023 13:42</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>7.53</v>
+        <v>26.89</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>09/08/2023 13:31</t>
+          <t>09/08/2023 13:34</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-henan-songshan-longmen/dvr7yU8F/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shenzhen-fc/0Clbwjv3/</t>
         </is>
       </c>
     </row>
@@ -15937,30 +15937,30 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G169" t="n">
+        <v>4</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Henan Songshan Longmen</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
         <v>2</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Dalian Pro</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
       <c r="J169" t="n">
-        <v>1.97</v>
+        <v>1.35</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>05/08/2023 13:42</t>
+          <t>04/08/2023 13:42</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,40 +15968,40 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.51</v>
+        <v>5.19</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>05/08/2023 13:42</t>
+          <t>04/08/2023 13:42</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.5</v>
+        <v>4.86</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>09/08/2023 13:33</t>
+          <t>09/08/2023 13:27</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>3.56</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>05/08/2023 13:42</t>
+          <t>04/08/2023 13:42</t>
         </is>
       </c>
       <c r="T169" t="n">
-        <v>3.85</v>
+        <v>7.53</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>09/08/2023 13:33</t>
+          <t>09/08/2023 13:31</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-dalian-professional/MLkfvWOd/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-henan-songshan-longmen/dvr7yU8F/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J170" t="n">
-        <v>2.55</v>
+        <v>1.28</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,48 +16052,48 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>1.86</v>
+        <v>1.26</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
+          <t>12/08/2023 13:33</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>08/08/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
           <t>12/08/2023 13:34</t>
         </is>
       </c>
-      <c r="N170" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O170" t="inlineStr">
+      <c r="R170" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="S170" t="inlineStr">
         <is>
           <t>08/08/2023 13:42</t>
         </is>
       </c>
-      <c r="P170" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="Q170" t="inlineStr">
+      <c r="T170" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="U170" t="inlineStr">
         <is>
           <t>12/08/2023 13:34</t>
         </is>
       </c>
-      <c r="R170" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>08/08/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T170" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="U170" t="inlineStr">
-        <is>
-          <t>12/08/2023 13:34</t>
-        </is>
-      </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-qingdao-hainiu/2wAvJLhl/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-zhejiang-professional/p2aqIu8f/</t>
         </is>
       </c>
     </row>
@@ -16121,7 +16121,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G171" t="n">
@@ -16129,14 +16129,14 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
       <c r="J171" t="n">
-        <v>3.42</v>
+        <v>2.55</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -16144,15 +16144,15 @@
         </is>
       </c>
       <c r="L171" t="n">
-        <v>4.39</v>
+        <v>1.86</v>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>12/08/2023 13:30</t>
+          <t>12/08/2023 13:34</t>
         </is>
       </c>
       <c r="N171" t="n">
-        <v>3.51</v>
+        <v>3.5</v>
       </c>
       <c r="O171" t="inlineStr">
         <is>
@@ -16160,15 +16160,15 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>3.77</v>
+        <v>3.57</v>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
-          <t>12/08/2023 13:30</t>
+          <t>12/08/2023 13:34</t>
         </is>
       </c>
       <c r="R171" t="n">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -16176,16 +16176,16 @@
         </is>
       </c>
       <c r="T171" t="n">
-        <v>1.81</v>
+        <v>4.35</v>
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>12/08/2023 13:22</t>
+          <t>12/08/2023 13:34</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-chengdu-rongcheng/lz6zK1wr/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-qingdao-hainiu/2wAvJLhl/</t>
         </is>
       </c>
     </row>
@@ -16213,22 +16213,22 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="I172" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>1.28</v>
+        <v>3.42</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -16236,15 +16236,15 @@
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1.26</v>
+        <v>4.39</v>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>12/08/2023 13:33</t>
+          <t>12/08/2023 13:30</t>
         </is>
       </c>
       <c r="N172" t="n">
-        <v>5.47</v>
+        <v>3.51</v>
       </c>
       <c r="O172" t="inlineStr">
         <is>
@@ -16252,15 +16252,15 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>6.31</v>
+        <v>3.77</v>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
-          <t>12/08/2023 13:34</t>
+          <t>12/08/2023 13:30</t>
         </is>
       </c>
       <c r="R172" t="n">
-        <v>8.51</v>
+        <v>2.02</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -16268,16 +16268,16 @@
         </is>
       </c>
       <c r="T172" t="n">
-        <v>9.789999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>12/08/2023 13:34</t>
+          <t>12/08/2023 13:22</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-zhejiang-professional/p2aqIu8f/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-chengdu-rongcheng/lz6zK1wr/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,63 +17693,63 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J188" t="n">
-        <v>2.1</v>
+        <v>3.29</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>20/08/2023 13:42</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.79</v>
+        <v>3.2</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>26/08/2023 13:33</t>
+          <t>26/08/2023 13:32</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.49</v>
+        <v>3.47</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>20/08/2023 13:42</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.86</v>
+        <v>3.64</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
-          <t>26/08/2023 13:33</t>
+          <t>26/08/2023 13:32</t>
         </is>
       </c>
       <c r="R188" t="n">
-        <v>3.51</v>
+        <v>2.08</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>20/08/2023 13:42</t>
+          <t>21/08/2023 16:42</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>4.38</v>
+        <v>2.18</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
-          <t>26/08/2023 13:33</t>
+          <t>26/08/2023 13:32</t>
         </is>
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-changchun-yatai/4Qfiovxs/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-beijing-guoan/AqD4tGjC/</t>
         </is>
       </c>
     </row>
@@ -17777,71 +17777,71 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G189" t="n">
+        <v>3</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
         <v>1</v>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>Beijing Guoan</t>
-        </is>
-      </c>
-      <c r="I189" t="n">
-        <v>5</v>
-      </c>
       <c r="J189" t="n">
-        <v>3.29</v>
+        <v>1.97</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>19/08/2023 13:42</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>3.2</v>
+        <v>2.02</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>26/08/2023 13:32</t>
+          <t>26/08/2023 13:31</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.47</v>
+        <v>3.56</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>19/08/2023 13:42</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.64</v>
+        <v>3.59</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
-          <t>26/08/2023 13:32</t>
+          <t>26/08/2023 13:31</t>
         </is>
       </c>
       <c r="R189" t="n">
-        <v>2.08</v>
+        <v>3.86</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>21/08/2023 16:42</t>
+          <t>19/08/2023 13:42</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>2.18</v>
+        <v>3.68</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
-          <t>26/08/2023 13:32</t>
+          <t>26/08/2023 13:31</t>
         </is>
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-beijing-guoan/AqD4tGjC/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-meizhou-hakka/CjbaqI6g/</t>
         </is>
       </c>
     </row>
@@ -17869,22 +17869,22 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -17892,15 +17892,15 @@
         </is>
       </c>
       <c r="L190" t="n">
-        <v>1.69</v>
+        <v>2.61</v>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>26/08/2023 13:33</t>
+          <t>26/08/2023 13:31</t>
         </is>
       </c>
       <c r="N190" t="n">
-        <v>3.81</v>
+        <v>3.04</v>
       </c>
       <c r="O190" t="inlineStr">
         <is>
@@ -17908,15 +17908,15 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>3.96</v>
+        <v>2.94</v>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
-          <t>26/08/2023 13:33</t>
+          <t>26/08/2023 13:31</t>
         </is>
       </c>
       <c r="R190" t="n">
-        <v>4.86</v>
+        <v>3.08</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="T190" t="n">
-        <v>4.91</v>
+        <v>3.11</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>26/08/2023 13:33</t>
+          <t>26/08/2023 13:31</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-dalian-professional/jsc3rxMa/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-chengdu-rongcheng/ITbepbim/</t>
         </is>
       </c>
     </row>
@@ -17961,7 +17961,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G191" t="n">
@@ -17969,14 +17969,14 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191" t="n">
-        <v>1.97</v>
+        <v>1.72</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>26/08/2023 13:31</t>
+          <t>26/08/2023 13:33</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.56</v>
+        <v>3.81</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>3.59</v>
+        <v>3.96</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>26/08/2023 13:31</t>
+          <t>26/08/2023 13:33</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>3.86</v>
+        <v>4.86</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.68</v>
+        <v>4.91</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>26/08/2023 13:31</t>
+          <t>26/08/2023 13:33</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-meizhou-hakka/CjbaqI6g/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-dalian-professional/jsc3rxMa/</t>
         </is>
       </c>
     </row>
@@ -18053,7 +18053,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G192" t="n">
@@ -18061,63 +18061,63 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="n">
-        <v>2.54</v>
+        <v>2.1</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>19/08/2023 13:42</t>
+          <t>20/08/2023 13:42</t>
         </is>
       </c>
       <c r="L192" t="n">
-        <v>2.61</v>
+        <v>1.79</v>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>26/08/2023 13:31</t>
+          <t>26/08/2023 13:33</t>
         </is>
       </c>
       <c r="N192" t="n">
-        <v>3.04</v>
+        <v>3.49</v>
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>19/08/2023 13:42</t>
+          <t>20/08/2023 13:42</t>
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2.94</v>
+        <v>3.86</v>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
-          <t>26/08/2023 13:31</t>
+          <t>26/08/2023 13:33</t>
         </is>
       </c>
       <c r="R192" t="n">
-        <v>3.08</v>
+        <v>3.51</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
-          <t>19/08/2023 13:42</t>
+          <t>20/08/2023 13:42</t>
         </is>
       </c>
       <c r="T192" t="n">
-        <v>3.11</v>
+        <v>4.38</v>
       </c>
       <c r="U192" t="inlineStr">
         <is>
-          <t>26/08/2023 13:31</t>
+          <t>26/08/2023 13:33</t>
         </is>
       </c>
       <c r="V192" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-chengdu-rongcheng/ITbepbim/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-changchun-yatai/4Qfiovxs/</t>
         </is>
       </c>
     </row>
@@ -18237,22 +18237,22 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="G194" t="n">
+        <v>4</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Qingdao Hainiu</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
         <v>2</v>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>Changchun Yatai</t>
-        </is>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
       <c r="J194" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -18260,7 +18260,7 @@
         </is>
       </c>
       <c r="L194" t="n">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         </is>
       </c>
       <c r="N194" t="n">
-        <v>6.51</v>
+        <v>5.78</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
@@ -18276,15 +18276,15 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>6.33</v>
+        <v>4.91</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>15/09/2023 13:32</t>
+          <t>15/09/2023 13:34</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>10.92</v>
+        <v>11.41</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -18292,16 +18292,16 @@
         </is>
       </c>
       <c r="T194" t="n">
-        <v>8.949999999999999</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>15/09/2023 13:32</t>
+          <t>15/09/2023 13:34</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-changchun-yatai/KEfe3wbP/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-qingdao-hainiu/I9GCvfLO/</t>
         </is>
       </c>
     </row>
@@ -18329,22 +18329,22 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J195" t="n">
-        <v>1.26</v>
+        <v>1.78</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -18352,15 +18352,15 @@
         </is>
       </c>
       <c r="L195" t="n">
-        <v>1.38</v>
+        <v>2.44</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>15/09/2023 13:32</t>
+          <t>15/09/2023 13:33</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>5.78</v>
+        <v>3.83</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>4.91</v>
+        <v>3.49</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
@@ -18376,7 +18376,7 @@
         </is>
       </c>
       <c r="R195" t="n">
-        <v>11.41</v>
+        <v>4.43</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -18384,16 +18384,16 @@
         </is>
       </c>
       <c r="T195" t="n">
-        <v>8.220000000000001</v>
+        <v>2.87</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>15/09/2023 13:34</t>
+          <t>15/09/2023 13:33</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-qingdao-hainiu/I9GCvfLO/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-zhejiang-professional/46C8uz6I/</t>
         </is>
       </c>
     </row>
@@ -18421,22 +18421,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G196" t="n">
+        <v>2</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Cangzhou</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>Zhejiang Professional</t>
-        </is>
-      </c>
-      <c r="I196" t="n">
-        <v>1</v>
-      </c>
       <c r="J196" t="n">
-        <v>1.78</v>
+        <v>1.26</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.44</v>
+        <v>1.52</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>15/09/2023 13:33</t>
+          <t>15/09/2023 13:34</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.83</v>
+        <v>6.1</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,7 +18460,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.49</v>
+        <v>5.18</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
@@ -18468,7 +18468,7 @@
         </is>
       </c>
       <c r="R196" t="n">
-        <v>4.43</v>
+        <v>10.47</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -18476,16 +18476,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.87</v>
+        <v>4.99</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>15/09/2023 13:33</t>
+          <t>15/09/2023 13:34</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-zhejiang-professional/46C8uz6I/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-cangzhou-mighty-lions/jcoRcHLn/</t>
         </is>
       </c>
     </row>
@@ -18513,7 +18513,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G197" t="n">
@@ -18521,14 +18521,14 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>15/09/2023 13:34</t>
+          <t>15/09/2023 13:32</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>6.1</v>
+        <v>6.51</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,15 +18552,15 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>5.18</v>
+        <v>6.33</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>15/09/2023 13:34</t>
+          <t>15/09/2023 13:32</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>10.47</v>
+        <v>10.92</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,16 +18568,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>4.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>15/09/2023 13:34</t>
+          <t>15/09/2023 13:32</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-cangzhou-mighty-lions/jcoRcHLn/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-changchun-yatai/KEfe3wbP/</t>
         </is>
       </c>
     </row>
@@ -19249,30 +19249,30 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>1.99</v>
+        <v>3.03</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>16/09/2023 13:42</t>
+          <t>17/09/2023 09:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.01</v>
+        <v>2.8</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
@@ -19280,40 +19280,40 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.55</v>
+        <v>3.36</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>16/09/2023 13:42</t>
+          <t>17/09/2023 09:42</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>3.87</v>
+        <v>3.35</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>23/09/2023 13:34</t>
+          <t>23/09/2023 13:26</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>16/09/2023 13:42</t>
+          <t>17/09/2023 09:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.44</v>
+        <v>2.58</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>23/09/2023 13:34</t>
+          <t>23/09/2023 13:26</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-henan-songshan-longmen/U1P3Bzjn/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-shanghai-port/GbLaCGzt/</t>
         </is>
       </c>
     </row>
@@ -19341,30 +19341,30 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>3.03</v>
+        <v>1.99</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>17/09/2023 09:42</t>
+          <t>16/09/2023 13:42</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.8</v>
+        <v>2.01</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
@@ -19372,40 +19372,40 @@
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>17/09/2023 09:42</t>
+          <t>16/09/2023 13:42</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.35</v>
+        <v>3.87</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>23/09/2023 13:26</t>
+          <t>23/09/2023 13:34</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>2.38</v>
+        <v>3.45</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>17/09/2023 09:42</t>
+          <t>16/09/2023 13:42</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>2.58</v>
+        <v>3.44</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>23/09/2023 13:26</t>
+          <t>23/09/2023 13:34</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-shanghai-port/GbLaCGzt/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-henan-songshan-longmen/U1P3Bzjn/</t>
         </is>
       </c>
     </row>
@@ -21154,6 +21154,742 @@
       <c r="V225" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-shenzhen-fc/SKZQOpQ2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Beijing Guoan</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Chengdu Rongcheng</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>3</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>23/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>23/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:22</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>23/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:22</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-chengdu-rongcheng/YX4RMOfF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Henan Songshan Longmen</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:12</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-changchun-yatai/CO3VLrAL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>4</v>
+      </c>
+      <c r="J228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-nantong-zhiyun/6BYUN4u9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Qingdao Hainiu</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>2</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Dalian Pro</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>2</v>
+      </c>
+      <c r="J229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:18</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:17</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T229" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:18</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-dalian-professional/6o3ZK2PR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Shanghai Port</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Shandong Taishan</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:24</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:24</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-shandong-taishan/r7f1GMXr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Tianjin Jinmen Tiger</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>29/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-shanghai-shenhua/QVq6Ftmk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Shenzhen</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>23/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:27</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>20.46</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>23/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>22.64</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>45.47</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>23/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>42.44</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-shenzhen-fc/4MrAE02e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45228.35416666666</v>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Zhejiang Professional</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>6</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Cangzhou</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>1</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:05</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-cangzhou-mighty-lions/YemEDKH1/</t>
         </is>
       </c>
     </row>

--- a/2023/china_super-league_2023.xlsx
+++ b/2023/china_super-league_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V233"/>
+  <dimension ref="A1:V240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Qingdao Hainiu</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Shandong Taishan</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.88</v>
+        <v>5.38</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3.16</v>
+        <v>7.05</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:30</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:27</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>14/04/2023 13:16</t>
+          <t>15/04/2023 16:18</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.35</v>
+        <v>1.51</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>16/04/2023 13:30</t>
+          <t>16/04/2023 13:34</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shandong-taishan/4O7XHmWo/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-qingdao-hainiu/YcCyH7oh/</t>
         </is>
       </c>
     </row>
@@ -1217,71 +1217,71 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.38</v>
+        <v>3.88</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7.05</v>
+        <v>3.16</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:30</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:27</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.98</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>15/04/2023 16:18</t>
+          <t>14/04/2023 13:16</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1.51</v>
+        <v>2.35</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>16/04/2023 13:34</t>
+          <t>16/04/2023 13:30</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-qingdao-hainiu/YcCyH7oh/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-shandong-taishan/4O7XHmWo/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>3.92</v>
+        <v>1.56</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>3.04</v>
+        <v>1.51</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:33</t>
+          <t>28/05/2023 12:50</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.58</v>
+        <v>4.2</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>4.15</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:33</t>
+          <t>28/05/2023 13:02</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.94</v>
+        <v>5.85</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>24/05/2023 13:42</t>
+          <t>26/05/2023 16:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.57</v>
+        <v>6.91</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>28/05/2023 13:33</t>
+          <t>28/05/2023 13:02</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-meizhou-hakka/Qs6kUWra/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-henan-songshan-longmen/rJGpVCTh/</t>
         </is>
       </c>
     </row>
@@ -7749,71 +7749,71 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>1.56</v>
+        <v>3.92</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.51</v>
+        <v>3.04</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>28/05/2023 12:50</t>
+          <t>28/05/2023 13:33</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.2</v>
+        <v>3.58</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.15</v>
+        <v>3.08</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>28/05/2023 13:02</t>
+          <t>28/05/2023 13:33</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>5.85</v>
+        <v>1.94</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>26/05/2023 16:42</t>
+          <t>24/05/2023 13:42</t>
         </is>
       </c>
       <c r="T80" t="n">
-        <v>6.91</v>
+        <v>2.57</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>28/05/2023 13:02</t>
+          <t>28/05/2023 13:33</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-henan-songshan-longmen/rJGpVCTh/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shenzhen-fc-meizhou-hakka/Qs6kUWra/</t>
         </is>
       </c>
     </row>
@@ -7933,46 +7933,46 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>29/05/2023 13:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>02/06/2023 13:29</t>
+          <t>02/06/2023 13:34</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>4.27</v>
+        <v>4.96</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>29/05/2023 13:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>4.37</v>
+        <v>4.15</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
@@ -7980,15 +7980,15 @@
         </is>
       </c>
       <c r="R82" t="n">
-        <v>5.97</v>
+        <v>8.08</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>29/05/2023 13:41</t>
+          <t>28/05/2023 13:42</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>5.49</v>
+        <v>4.73</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
@@ -7997,7 +7997,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-changchun-yatai/Y79cSADB/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shenzhen-fc/Cb81RUSH/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
         <v>3</v>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Shenzhen</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
       <c r="J83" t="n">
-        <v>1.32</v>
+        <v>1.57</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>28/05/2023 13:42</t>
+          <t>29/05/2023 13:41</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>02/06/2023 13:29</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>29/05/2023 13:41</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
           <t>02/06/2023 13:34</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>4.96</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>28/05/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q83" t="inlineStr">
+      <c r="R83" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>29/05/2023 13:41</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="U83" t="inlineStr">
         <is>
           <t>02/06/2023 13:34</t>
         </is>
       </c>
-      <c r="R83" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>28/05/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>02/06/2023 13:34</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-shenzhen-fc/Cb81RUSH/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-changchun-yatai/Y79cSADB/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,63 +8769,63 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>04/06/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>08/06/2023 13:17</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>04/06/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
         <v>3.57</v>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>04/06/2023 11:42</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>08/06/2023 13:34</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>04/06/2023 11:42</t>
-        </is>
-      </c>
-      <c r="P91" t="n">
-        <v>3.26</v>
-      </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>08/06/2023 13:34</t>
+          <t>08/06/2023 13:17</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.18</v>
+        <v>6.45</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>04/06/2023 11:42</t>
+          <t>04/06/2023 09:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.01</v>
+        <v>5.24</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>08/06/2023 13:34</t>
+          <t>08/06/2023 13:17</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-shenhua/8pMZR1JS/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-tianjin-jinmen-tiger/QLWUSs4M/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,63 +8861,63 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.56</v>
+        <v>3.57</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.74</v>
+        <v>4.16</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.9</v>
+        <v>3.39</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>6.45</v>
+        <v>2.18</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>04/06/2023 09:42</t>
+          <t>04/06/2023 11:42</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.24</v>
+        <v>2.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>08/06/2023 13:17</t>
+          <t>08/06/2023 13:34</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-tianjin-jinmen-tiger/QLWUSs4M/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-shanghai-shenhua/8pMZR1JS/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Dalian Pro</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2</v>
+        <v>1.31</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.85</v>
+        <v>5.49</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.67</v>
+        <v>5.58</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>28/06/2023 13:33</t>
+          <t>28/06/2023 13:34</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>4.76</v>
+        <v>7.51</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>28/06/2023 13:33</t>
+          <t>28/06/2023 13:34</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-meizhou-hakka/IXnvyudq/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-dalian-professional/nk0CuLmS/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Qingdao Hainiu</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.31</v>
+        <v>1.92</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.49</v>
+        <v>3.31</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>5.58</v>
+        <v>3.36</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>28/06/2023 13:34</t>
+          <t>28/06/2023 13:33</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>7.51</v>
+        <v>4.16</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>9.199999999999999</v>
+        <v>4.42</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>28/06/2023 13:34</t>
+          <t>28/06/2023 13:33</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-dalian-professional/nk0CuLmS/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-qingdao-hainiu/8b18t1YL/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>1.98</v>
+        <v>1.56</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>28/06/2023 13:33</t>
+          <t>28/06/2023 13:31</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.31</v>
+        <v>3.82</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.36</v>
+        <v>3.57</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>28/06/2023 13:33</t>
+          <t>28/06/2023 13:32</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>4.16</v>
+        <v>6.79</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>4.42</v>
+        <v>6.86</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>28/06/2023 13:33</t>
+          <t>28/06/2023 13:32</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-qingdao-hainiu/8b18t1YL/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-nantong-zhiyun/CW7arN39/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Henan Songshan Longmen</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
         <v>1</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Nantong Zhiyun</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
       <c r="J101" t="n">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.6</v>
+        <v>2.48</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>28/06/2023 13:31</t>
+          <t>28/06/2023 13:34</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.82</v>
+        <v>3.39</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.57</v>
+        <v>3.26</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>28/06/2023 13:32</t>
+          <t>28/06/2023 13:33</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>6.79</v>
+        <v>3.24</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>6.86</v>
+        <v>2.99</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>28/06/2023 13:32</t>
+          <t>28/06/2023 13:34</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-nantong-zhiyun/CW7arN39/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-henan-songshan-longmen/QZB3ssJF/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Cangzhou</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G102" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>Henan Songshan Longmen</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
-        <v>1</v>
-      </c>
       <c r="J102" t="n">
-        <v>2.14</v>
+        <v>1.72</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>28/06/2023 13:34</t>
+          <t>28/06/2023 13:33</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.39</v>
+        <v>3.85</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.26</v>
+        <v>3.67</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.24</v>
+        <v>4.76</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.99</v>
+        <v>3.65</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>28/06/2023 13:34</t>
+          <t>28/06/2023 13:33</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-henan-songshan-longmen/QZB3ssJF/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-meizhou-hakka/IXnvyudq/</t>
         </is>
       </c>
     </row>
@@ -21181,71 +21181,71 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Beijing Guoan</t>
+          <t>Zhejiang Professional</t>
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Chengdu Rongcheng</t>
+          <t>Cangzhou</t>
         </is>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J226" t="n">
-        <v>2.5</v>
+        <v>1.44</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>23/10/2023 13:42</t>
+          <t>22/10/2023 09:42</t>
         </is>
       </c>
       <c r="L226" t="n">
-        <v>2.75</v>
+        <v>1.15</v>
       </c>
       <c r="M226" t="inlineStr">
         <is>
+          <t>29/10/2023 08:05</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>7.84</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
           <t>29/10/2023 08:29</t>
         </is>
       </c>
-      <c r="N226" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="O226" t="inlineStr">
-        <is>
-          <t>23/10/2023 13:42</t>
-        </is>
-      </c>
-      <c r="P226" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="Q226" t="inlineStr">
-        <is>
-          <t>29/10/2023 08:22</t>
-        </is>
-      </c>
       <c r="R226" t="n">
-        <v>2.93</v>
+        <v>6.87</v>
       </c>
       <c r="S226" t="inlineStr">
         <is>
-          <t>23/10/2023 13:42</t>
+          <t>22/10/2023 09:42</t>
         </is>
       </c>
       <c r="T226" t="n">
-        <v>2.68</v>
+        <v>13.88</v>
       </c>
       <c r="U226" t="inlineStr">
         <is>
-          <t>29/10/2023 08:22</t>
+          <t>29/10/2023 08:29</t>
         </is>
       </c>
       <c r="V226" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-chengdu-rongcheng/YX4RMOfF/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-cangzhou-mighty-lions/YemEDKH1/</t>
         </is>
       </c>
     </row>
@@ -21273,7 +21273,7 @@
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Henan Songshan Longmen</t>
+          <t>Wuhan Three Towns</t>
         </is>
       </c>
       <c r="G227" t="n">
@@ -21281,63 +21281,63 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Changchun Yatai</t>
+          <t>Shenzhen</t>
         </is>
       </c>
       <c r="I227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>22/10/2023 09:42</t>
+          <t>23/10/2023 13:42</t>
         </is>
       </c>
       <c r="L227" t="n">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>29/10/2023 08:12</t>
+          <t>29/10/2023 08:27</t>
         </is>
       </c>
       <c r="N227" t="n">
-        <v>3.48</v>
+        <v>20.46</v>
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>22/10/2023 09:42</t>
+          <t>23/10/2023 13:42</t>
         </is>
       </c>
       <c r="P227" t="n">
-        <v>4.2</v>
+        <v>22.64</v>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>29/10/2023 08:12</t>
+          <t>29/10/2023 08:29</t>
         </is>
       </c>
       <c r="R227" t="n">
-        <v>3.59</v>
+        <v>45.47</v>
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>22/10/2023 09:42</t>
+          <t>23/10/2023 13:42</t>
         </is>
       </c>
       <c r="T227" t="n">
-        <v>5.58</v>
+        <v>42.44</v>
       </c>
       <c r="U227" t="inlineStr">
         <is>
-          <t>29/10/2023 08:12</t>
+          <t>29/10/2023 08:29</t>
         </is>
       </c>
       <c r="V227" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-changchun-yatai/CO3VLrAL/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-shenzhen-fc/4MrAE02e/</t>
         </is>
       </c>
     </row>
@@ -21365,22 +21365,22 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Meizhou Hakka</t>
+          <t>Tianjin Jinmen Tiger</t>
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Shanghai Shenhua</t>
         </is>
       </c>
       <c r="I228" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J228" t="n">
-        <v>1.75</v>
+        <v>2.66</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -21388,7 +21388,7 @@
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1.65</v>
+        <v>3.31</v>
       </c>
       <c r="M228" t="inlineStr">
         <is>
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="N228" t="n">
-        <v>3.86</v>
+        <v>3.06</v>
       </c>
       <c r="O228" t="inlineStr">
         <is>
@@ -21404,32 +21404,32 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>4.26</v>
+        <v>3.14</v>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
+          <t>29/10/2023 07:42</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
           <t>29/10/2023 08:29</t>
         </is>
       </c>
-      <c r="R228" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S228" t="inlineStr">
-        <is>
-          <t>22/10/2023 09:42</t>
-        </is>
-      </c>
-      <c r="T228" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="U228" t="inlineStr">
-        <is>
-          <t>29/10/2023 08:29</t>
-        </is>
-      </c>
       <c r="V228" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-nantong-zhiyun/6BYUN4u9/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-shanghai-shenhua/QVq6Ftmk/</t>
         </is>
       </c>
     </row>
@@ -21457,22 +21457,22 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Qingdao Hainiu</t>
+          <t>Shanghai Port</t>
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Dalian Pro</t>
+          <t>Shandong Taishan</t>
         </is>
       </c>
       <c r="I229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J229" t="n">
-        <v>1.91</v>
+        <v>2.27</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -21480,15 +21480,15 @@
         </is>
       </c>
       <c r="L229" t="n">
-        <v>2.97</v>
+        <v>2.43</v>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>29/10/2023 08:18</t>
+          <t>29/10/2023 08:24</t>
         </is>
       </c>
       <c r="N229" t="n">
-        <v>3.62</v>
+        <v>3.38</v>
       </c>
       <c r="O229" t="inlineStr">
         <is>
@@ -21496,15 +21496,15 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>3.59</v>
+        <v>3.47</v>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>29/10/2023 08:17</t>
+          <t>29/10/2023 08:29</t>
         </is>
       </c>
       <c r="R229" t="n">
-        <v>3.66</v>
+        <v>3.21</v>
       </c>
       <c r="S229" t="inlineStr">
         <is>
@@ -21512,16 +21512,16 @@
         </is>
       </c>
       <c r="T229" t="n">
-        <v>2.27</v>
+        <v>2.9</v>
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>29/10/2023 08:18</t>
+          <t>29/10/2023 08:24</t>
         </is>
       </c>
       <c r="V229" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-dalian-professional/6o3ZK2PR/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-shandong-taishan/r7f1GMXr/</t>
         </is>
       </c>
     </row>
@@ -21549,22 +21549,22 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Meizhou Hakka</t>
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Shandong Taishan</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J230" t="n">
-        <v>2.27</v>
+        <v>1.75</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -21572,15 +21572,15 @@
         </is>
       </c>
       <c r="L230" t="n">
-        <v>2.43</v>
+        <v>1.65</v>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>29/10/2023 08:24</t>
+          <t>29/10/2023 08:29</t>
         </is>
       </c>
       <c r="N230" t="n">
-        <v>3.38</v>
+        <v>3.86</v>
       </c>
       <c r="O230" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>3.47</v>
+        <v>4.26</v>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="R230" t="n">
-        <v>3.21</v>
+        <v>4.07</v>
       </c>
       <c r="S230" t="inlineStr">
         <is>
@@ -21604,16 +21604,16 @@
         </is>
       </c>
       <c r="T230" t="n">
-        <v>2.9</v>
+        <v>4.79</v>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>29/10/2023 08:24</t>
+          <t>29/10/2023 08:29</t>
         </is>
       </c>
       <c r="V230" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/shanghai-port-shandong-taishan/r7f1GMXr/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/meizhou-hakka-nantong-zhiyun/6BYUN4u9/</t>
         </is>
       </c>
     </row>
@@ -21641,7 +21641,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>Tianjin Jinmen Tiger</t>
+          <t>Henan Songshan Longmen</t>
         </is>
       </c>
       <c r="G231" t="n">
@@ -21649,14 +21649,14 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Shanghai Shenhua</t>
+          <t>Changchun Yatai</t>
         </is>
       </c>
       <c r="I231" t="n">
         <v>1</v>
       </c>
       <c r="J231" t="n">
-        <v>2.66</v>
+        <v>2.08</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -21664,15 +21664,15 @@
         </is>
       </c>
       <c r="L231" t="n">
-        <v>3.31</v>
+        <v>1.55</v>
       </c>
       <c r="M231" t="inlineStr">
         <is>
-          <t>29/10/2023 08:29</t>
+          <t>29/10/2023 08:12</t>
         </is>
       </c>
       <c r="N231" t="n">
-        <v>3.06</v>
+        <v>3.48</v>
       </c>
       <c r="O231" t="inlineStr">
         <is>
@@ -21680,15 +21680,15 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>3.14</v>
+        <v>4.2</v>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>29/10/2023 07:42</t>
+          <t>29/10/2023 08:12</t>
         </is>
       </c>
       <c r="R231" t="n">
-        <v>2.9</v>
+        <v>3.59</v>
       </c>
       <c r="S231" t="inlineStr">
         <is>
@@ -21696,16 +21696,16 @@
         </is>
       </c>
       <c r="T231" t="n">
-        <v>2.36</v>
+        <v>5.58</v>
       </c>
       <c r="U231" t="inlineStr">
         <is>
-          <t>29/10/2023 08:29</t>
+          <t>29/10/2023 08:12</t>
         </is>
       </c>
       <c r="V231" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/tianjin-jinmen-tiger-shanghai-shenhua/QVq6Ftmk/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/henan-songshan-longmen-changchun-yatai/CO3VLrAL/</t>
         </is>
       </c>
     </row>
@@ -21733,22 +21733,22 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Wuhan Three Towns</t>
+          <t>Beijing Guoan</t>
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Shenzhen</t>
+          <t>Chengdu Rongcheng</t>
         </is>
       </c>
       <c r="I232" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J232" t="n">
-        <v>1.04</v>
+        <v>2.5</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -21756,15 +21756,15 @@
         </is>
       </c>
       <c r="L232" t="n">
-        <v>1.03</v>
+        <v>2.75</v>
       </c>
       <c r="M232" t="inlineStr">
         <is>
-          <t>29/10/2023 08:27</t>
+          <t>29/10/2023 08:29</t>
         </is>
       </c>
       <c r="N232" t="n">
-        <v>20.46</v>
+        <v>3.27</v>
       </c>
       <c r="O232" t="inlineStr">
         <is>
@@ -21772,15 +21772,15 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>22.64</v>
+        <v>3.27</v>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>29/10/2023 08:29</t>
+          <t>29/10/2023 08:22</t>
         </is>
       </c>
       <c r="R232" t="n">
-        <v>45.47</v>
+        <v>2.93</v>
       </c>
       <c r="S232" t="inlineStr">
         <is>
@@ -21788,16 +21788,16 @@
         </is>
       </c>
       <c r="T232" t="n">
-        <v>42.44</v>
+        <v>2.68</v>
       </c>
       <c r="U232" t="inlineStr">
         <is>
-          <t>29/10/2023 08:29</t>
+          <t>29/10/2023 08:22</t>
         </is>
       </c>
       <c r="V232" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/china/super-league/wuhan-three-towns-shenzhen-fc/4MrAE02e/</t>
+          <t>https://www.betexplorer.com/football/china/super-league/beijing-guoan-chengdu-rongcheng/YX4RMOfF/</t>
         </is>
       </c>
     </row>
@@ -21825,71 +21825,715 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
+          <t>Qingdao Hainiu</t>
+        </is>
+      </c>
+      <c r="G233" t="n">
+        <v>2</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Dalian Pro</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>2</v>
+      </c>
+      <c r="J233" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:18</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P233" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:17</t>
+        </is>
+      </c>
+      <c r="R233" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>22/10/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T233" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:18</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/qingdao-hainiu-dalian-professional/6o3ZK2PR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45234.35416666666</v>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Shandong Taishan</t>
+        </is>
+      </c>
+      <c r="G234" t="n">
+        <v>5</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Henan Songshan Longmen</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P234" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R234" t="n">
+        <v>9.880000000000001</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T234" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V234" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/shandong-taishan-henan-songshan-longmen/buSCYLgR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45234.35416666666</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Cangzhou</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Qingdao Hainiu</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:41</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:41</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:27</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:41</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V235" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/cangzhou-mighty-lions-qingdao-hainiu/CnnICvX7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45234.35416666666</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Changchun Yatai</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>3</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Wuhan Three Towns</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>4</v>
+      </c>
+      <c r="J236" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/changchun-yatai-wuhan-three-towns/EiQ0yO98/</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45234.35416666666</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Chengdu Rongcheng</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>3</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Meizhou Hakka</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:26</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P237" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T237" t="n">
+        <v>16.26</v>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V237" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/chengdu-rongcheng-meizhou-hakka/QRT4zrPE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45234.35416666666</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Dalian Pro</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>2</v>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Shanghai Port</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>3</v>
+      </c>
+      <c r="J238" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P238" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V238" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/dalian-professional-shanghai-port/KlT8Z1vL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45234.35416666666</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>Nantong Zhiyun</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>1</v>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Tianjin Jinmen Tiger</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>2</v>
+      </c>
+      <c r="J239" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:27</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P239" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:17</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T239" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:27</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/nantong-zhiyun-tianjin-jinmen-tiger/Cn8mSJWf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>china</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>super-league</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45234.35416666666</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>Shanghai Shenhua</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
           <t>Zhejiang Professional</t>
         </is>
       </c>
-      <c r="G233" t="n">
-        <v>6</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Cangzhou</t>
-        </is>
-      </c>
-      <c r="I233" t="n">
-        <v>1</v>
-      </c>
-      <c r="J233" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>22/10/2023 09:42</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="M233" t="inlineStr">
-        <is>
-          <t>29/10/2023 08:05</t>
-        </is>
-      </c>
-      <c r="N233" t="n">
-        <v>4.73</v>
-      </c>
-      <c r="O233" t="inlineStr">
-        <is>
-          <t>22/10/2023 09:42</t>
-        </is>
-      </c>
-      <c r="P233" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="Q233" t="inlineStr">
-        <is>
-          <t>29/10/2023 08:29</t>
-        </is>
-      </c>
-      <c r="R233" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="S233" t="inlineStr">
-        <is>
-          <t>22/10/2023 09:42</t>
-        </is>
-      </c>
-      <c r="T233" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="U233" t="inlineStr">
-        <is>
-          <t>29/10/2023 08:29</t>
-        </is>
-      </c>
-      <c r="V233" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/china/super-league/zhejiang-professional-cangzhou-mighty-lions/YemEDKH1/</t>
+      <c r="I240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="P240" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:26</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>29/10/2023 08:42</t>
+        </is>
+      </c>
+      <c r="T240" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>04/11/2023 08:29</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/china/super-league/shanghai-shenhua-zhejiang-professional/vZ9uUu2r/</t>
         </is>
       </c>
     </row>
